--- a/теорвер/задачки.xlsx
+++ b/теорвер/задачки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szime\study\теорвер\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CAABD-60D7-4FF1-9006-3929311ACC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65B2308-ACD8-444F-A84D-47F0D8463096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="6" xr2:uid="{901C833E-4840-4AA1-8624-BD8DA14C4D5D}"/>
   </bookViews>
@@ -423,7 +423,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,14 +487,6 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -782,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1030,9 +1022,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1056,6 +1045,23 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1069,12 +1075,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1111,10 +1111,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1138,8 +1138,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1159,59 +1183,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1232,8 +1222,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22609,8 +22602,8 @@
       <xdr:rowOff>2223</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="640853" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -22652,6 +22645,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -22694,7 +22688,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -22773,8 +22767,8 @@
       <xdr:rowOff>2457</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="640853" cy="181012"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -22816,6 +22810,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -22866,7 +22861,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -22951,8 +22946,8 @@
       <xdr:rowOff>4932</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4491047" cy="524234"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -23542,7 +23537,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -23781,8 +23776,8 @@
       <xdr:rowOff>4937</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="941916" cy="351367"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -23824,6 +23819,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -23909,7 +23905,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -24021,8 +24017,8 @@
       <xdr:rowOff>4937</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="938388" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -24064,6 +24060,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -24103,7 +24100,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -24167,8 +24164,8 @@
       <xdr:rowOff>2116</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="934860" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -24210,6 +24207,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -24262,7 +24260,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -24326,8 +24324,8 @@
       <xdr:rowOff>4457</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5436137" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -24702,7 +24700,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -24830,8 +24828,8 @@
       <xdr:rowOff>2045</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="940593" cy="529767"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -24990,7 +24988,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -25091,8 +25089,8 @@
       <xdr:rowOff>3968</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="935891" cy="524585"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -25149,7 +25147,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -25162,7 +25160,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -25176,7 +25174,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -25190,7 +25188,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -25203,7 +25201,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -25217,7 +25215,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -25231,7 +25229,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -25247,7 +25245,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -25260,7 +25258,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -25272,7 +25270,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -25288,7 +25286,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -27761,7 +27759,7 @@
         <v>0.14192594497635977</v>
       </c>
       <c r="C10" s="43"/>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="113" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="21"/>
@@ -27778,7 +27776,7 @@
         <v>0.12025678453635984</v>
       </c>
       <c r="C11" s="43"/>
-      <c r="D11" s="108"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="23"/>
       <c r="F11" s="36"/>
     </row>
@@ -27897,10 +27895,10 @@
         <f>E15+(E12/SQRT(E14))*E13</f>
         <v>1.6590428046126022</v>
       </c>
-      <c r="H16" s="111" t="s">
+      <c r="H16" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="111"/>
+      <c r="I16" s="117"/>
     </row>
     <row r="17" spans="1:13" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
@@ -27912,8 +27910,8 @@
       </c>
       <c r="C17" s="43"/>
       <c r="F17" s="39"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
@@ -27925,8 +27923,8 @@
       </c>
       <c r="C18" s="43"/>
       <c r="F18" s="39"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
@@ -27937,7 +27935,7 @@
         <v>2.5619395672359928E-2</v>
       </c>
       <c r="C19" s="43"/>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="115" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="21"/>
@@ -27953,7 +27951,7 @@
         <v>2.1126796920359934E-2</v>
       </c>
       <c r="C20" s="43"/>
-      <c r="D20" s="110"/>
+      <c r="D20" s="116"/>
       <c r="E20" s="23"/>
       <c r="F20" s="36"/>
       <c r="M20"/>
@@ -28072,7 +28070,7 @@
         <v>5.9094692836000721E-4</v>
       </c>
       <c r="C27" s="43"/>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="113" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="21"/>
@@ -28089,7 +28087,7 @@
         <v>2.5522097763600216E-3</v>
       </c>
       <c r="C28" s="43"/>
-      <c r="D28" s="108"/>
+      <c r="D28" s="114"/>
       <c r="E28" s="23"/>
       <c r="F28" s="36"/>
     </row>
@@ -28533,63 +28531,63 @@
       <c r="A9" s="62">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="112" t="s">
+      <c r="D9" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="112" t="s">
+      <c r="E9" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="112" t="s">
+      <c r="F9" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="112" t="s">
+      <c r="G9" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="112" t="s">
+      <c r="H9" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="112" t="s">
+      <c r="I9" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="113" t="s">
+      <c r="J9" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="125" t="s">
+      <c r="L9" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125" t="s">
+      <c r="M9" s="129"/>
+      <c r="N9" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="125"/>
-      <c r="P9" s="115" t="s">
+      <c r="O9" s="129"/>
+      <c r="P9" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="129"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="62">
         <v>0.27818100000000001</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="131"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="62">
@@ -28645,11 +28643,11 @@
         <f>O11-N11</f>
         <v>7.3606111689107662E-2</v>
       </c>
-      <c r="Q11" s="114">
+      <c r="Q11" s="118">
         <f t="shared" ref="Q11:Q16" si="3">POWER(G11-$D$2*P11,2)/($D$2*P11)</f>
         <v>0.47321976679753674</v>
       </c>
-      <c r="R11" s="114"/>
+      <c r="R11" s="118"/>
       <c r="S11" s="1">
         <f>P11*50</f>
         <v>3.6803055844553829</v>
@@ -28709,11 +28707,11 @@
         <f>O12-N12</f>
         <v>0.15168671001202255</v>
       </c>
-      <c r="Q12" s="114">
+      <c r="Q12" s="118">
         <f t="shared" si="3"/>
         <v>0.88060318259100312</v>
       </c>
-      <c r="R12" s="114"/>
+      <c r="R12" s="118"/>
       <c r="S12" s="1">
         <f t="shared" ref="S12:S16" si="7">P12*50</f>
         <v>7.5843355006011279</v>
@@ -28773,11 +28771,11 @@
         <f>O13-N13</f>
         <v>0.25101237664776532</v>
       </c>
-      <c r="Q13" s="114">
+      <c r="Q13" s="118">
         <f t="shared" si="3"/>
         <v>2.4156665311054284E-2</v>
       </c>
-      <c r="R13" s="114"/>
+      <c r="R13" s="118"/>
       <c r="S13" s="1">
         <f t="shared" si="7"/>
         <v>12.550618832388267</v>
@@ -28837,11 +28835,11 @@
         <f t="shared" ref="P14:P15" si="9">O14-N14</f>
         <v>0.26117001763272563</v>
       </c>
-      <c r="Q14" s="114">
+      <c r="Q14" s="118">
         <f t="shared" si="3"/>
         <v>2.6207856347698231E-4</v>
       </c>
-      <c r="R14" s="114"/>
+      <c r="R14" s="118"/>
       <c r="S14" s="1">
         <f t="shared" si="7"/>
         <v>13.058500881636281</v>
@@ -28901,11 +28899,11 @@
         <f t="shared" si="9"/>
         <v>0.17086296935610923</v>
       </c>
-      <c r="Q15" s="114">
+      <c r="Q15" s="118">
         <f t="shared" si="3"/>
         <v>0.2484349177420736</v>
       </c>
-      <c r="R15" s="114"/>
+      <c r="R15" s="118"/>
       <c r="S15" s="1">
         <f t="shared" si="7"/>
         <v>8.5431484678054623</v>
@@ -28964,11 +28962,11 @@
         <f>O16-N16</f>
         <v>9.1661814662269636E-2</v>
       </c>
-      <c r="Q16" s="114">
+      <c r="Q16" s="118">
         <f t="shared" si="3"/>
         <v>3.7924917252898441E-2</v>
       </c>
-      <c r="R16" s="114"/>
+      <c r="R16" s="118"/>
       <c r="S16" s="1">
         <f t="shared" si="7"/>
         <v>4.5830907331134814</v>
@@ -28999,73 +28997,73 @@
       <c r="A18" s="62">
         <v>1.63781</v>
       </c>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="118">
+      <c r="P18" s="123"/>
+      <c r="Q18" s="122">
         <f>SUM(Q11:Q16)</f>
         <v>1.6646015282580433</v>
       </c>
-      <c r="R18" s="118"/>
+      <c r="R18" s="122"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="62">
         <v>1.72692</v>
       </c>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="62">
         <v>1.7513700000000001</v>
       </c>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="62">
         <v>1.9047400000000001</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
     </row>
     <row r="22" spans="1:18" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="62">
         <v>1.91276</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="P22" s="122" t="s">
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="P22" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="Q22" s="117" t="str">
+      <c r="Q22" s="121" t="str">
         <f>IF(Q18&lt;$J$4, "да, гипотеза не противоречит результату", "нет, гипотеза отвергнута")</f>
         <v>да, гипотеза не противоречит результату</v>
       </c>
-      <c r="R22" s="117"/>
+      <c r="R22" s="121"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="62">
         <v>2.3263500000000001</v>
       </c>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="121"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="62">
         <v>2.4750100000000002</v>
       </c>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="62">
@@ -29204,6 +29202,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="P9:P10"/>
@@ -29220,13 +29225,6 @@
     <mergeCell ref="N9:O10"/>
     <mergeCell ref="L9:M10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29241,8 +29239,8 @@
   </sheetPr>
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="86" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView zoomScale="86" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -29264,24 +29262,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
       <c r="I1" s="73"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
       <c r="L1" s="73"/>
       <c r="M1" s="90"/>
       <c r="N1" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="95" t="s">
+      <c r="P1" s="107" t="s">
         <v>73</v>
       </c>
       <c r="Q1" s="79">
@@ -29296,14 +29294,14 @@
         <f>COUNTA(D3:D52)</f>
         <v>50</v>
       </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
       <c r="I2" s="73"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
       <c r="L2" s="73"/>
       <c r="M2" s="90"/>
       <c r="N2" s="79">
@@ -29426,10 +29424,10 @@
       <c r="L5" s="86"/>
       <c r="M5" s="86"/>
       <c r="N5" s="86"/>
-      <c r="P5" s="115" t="s">
+      <c r="P5" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="Q5" s="118">
+      <c r="Q5" s="122">
         <f>MAX(N2:N3)</f>
         <v>8.4665337274702213E-2</v>
       </c>
@@ -29471,8 +29469,8 @@
       <c r="L6" s="86"/>
       <c r="M6" s="86"/>
       <c r="N6" s="86"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="118"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="122"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
@@ -29545,8 +29543,8 @@
       <c r="M8" s="86"/>
       <c r="N8" s="86"/>
       <c r="O8" s="86"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="126" t="s">
+      <c r="P8" s="138"/>
+      <c r="Q8" s="139" t="s">
         <v>71</v>
       </c>
     </row>
@@ -29584,8 +29582,8 @@
       <c r="M9" s="86"/>
       <c r="N9" s="86"/>
       <c r="O9" s="89"/>
-      <c r="P9" s="134"/>
-      <c r="Q9" s="126"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="139"/>
       <c r="R9" s="89"/>
       <c r="S9" s="89"/>
       <c r="T9" s="89"/>
@@ -29716,22 +29714,22 @@
       <c r="M12" s="86"/>
       <c r="N12" s="86"/>
       <c r="O12" s="86"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="135" t="str">
+      <c r="P12" s="138"/>
+      <c r="Q12" s="140" t="str">
         <f>IF(P10&lt;Q10, "да; гипотеза не противоречит опытным данным, ее следует принять.", "нет; гипотеза противоречит опытным данным, ее следует отвергнуть.")</f>
         <v>да; гипотеза не противоречит опытным данным, ее следует принять.</v>
       </c>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
       <c r="U12" s="87"/>
       <c r="V12" s="86"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="129"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="75"/>
       <c r="D13" s="69">
         <v>1.0916300000000001</v>
@@ -29763,17 +29761,17 @@
       <c r="M13" s="86"/>
       <c r="N13" s="86"/>
       <c r="O13" s="86"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
       <c r="U13" s="87"/>
       <c r="V13" s="86"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="130"/>
-      <c r="B14" s="131"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="75"/>
       <c r="D14" s="69">
         <v>1.16337</v>
@@ -29814,8 +29812,8 @@
       <c r="V14" s="86"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="130"/>
-      <c r="B15" s="131"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="75"/>
       <c r="D15" s="69">
         <v>1.25841</v>
@@ -29856,8 +29854,8 @@
       <c r="V15" s="86"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="132"/>
-      <c r="B16" s="133"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="75"/>
       <c r="D16" s="69">
         <v>1.49274</v>
@@ -31095,6 +31093,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A13:B16"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="P8:P9"/>
@@ -31102,13 +31107,6 @@
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q12:T13"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31123,8 +31121,8 @@
   </sheetPr>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B56"/>
+    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -31149,11 +31147,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="96" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="92">
@@ -31163,8 +31161,8 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="94" t="s">
         <v>78</v>
       </c>
@@ -31174,9 +31172,9 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
     </row>
     <row r="4" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -31293,21 +31291,21 @@
         <v>0.04</v>
       </c>
       <c r="F8" s="92">
-        <f t="shared" ref="F8:F38" si="2">COUNTIF($B$7:$B$56,"&lt;"&amp;A8)/$D$1</f>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A8)/$D$1</f>
         <v>0.2</v>
       </c>
       <c r="G8" s="86"/>
       <c r="H8" s="92">
-        <f t="shared" ref="H8:H56" si="3">ABS(E8-F8)</f>
+        <f t="shared" ref="H8:H56" si="2">ABS(E8-F8)</f>
         <v>0.16</v>
       </c>
       <c r="I8" s="92">
-        <f t="shared" ref="I8:I56" si="4">ABS(F8-D8)</f>
+        <f t="shared" ref="I8:I56" si="3">ABS(F8-D8)</f>
         <v>0.18000000000000002</v>
       </c>
       <c r="K8" s="86"/>
       <c r="L8" s="86"/>
-      <c r="N8" s="115"/>
+      <c r="N8" s="119"/>
       <c r="O8" s="144">
         <f>MAX(L6:L7)</f>
         <v>0.54</v>
@@ -31333,20 +31331,20 @@
         <v>0.06</v>
       </c>
       <c r="F9" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A9)/$D$1</f>
         <v>0.2</v>
       </c>
       <c r="G9" s="86"/>
       <c r="H9" s="92">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I9" s="92">
         <f t="shared" si="3"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I9" s="92">
-        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="L9" s="86"/>
-      <c r="N9" s="116"/>
+      <c r="N9" s="120"/>
       <c r="O9" s="145"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -31368,16 +31366,16 @@
         <v>0.08</v>
       </c>
       <c r="F10" s="92">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F10" si="4">COUNTIF($B$7:$B$56,"&lt;"&amp;A10)/$D$1</f>
         <v>0.2</v>
       </c>
       <c r="G10" s="86"/>
       <c r="H10" s="92">
+        <f t="shared" si="2"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="I10" s="92">
         <f t="shared" si="3"/>
-        <v>0.12000000000000001</v>
-      </c>
-      <c r="I10" s="92">
-        <f t="shared" si="4"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K10" s="86"/>
@@ -31402,22 +31400,22 @@
         <v>0.1</v>
       </c>
       <c r="F11" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A11)/$D$1</f>
         <v>0.2</v>
       </c>
       <c r="G11" s="86"/>
       <c r="H11" s="92">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="92">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="92">
-        <f t="shared" si="4"/>
         <v>0.12000000000000001</v>
       </c>
       <c r="K11" s="86"/>
       <c r="L11" s="86"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="118">
+      <c r="N11" s="138"/>
+      <c r="O11" s="122">
         <f>SQRT((D1*D2)/(D1+D2))</f>
         <v>5</v>
       </c>
@@ -31442,23 +31440,23 @@
         <v>0.12</v>
       </c>
       <c r="F12" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A12)/$D$1</f>
         <v>0.22</v>
       </c>
       <c r="G12" s="86"/>
       <c r="H12" s="92">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="92">
         <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="92">
-        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
       <c r="K12" s="86"/>
       <c r="L12" s="86"/>
       <c r="M12" s="86"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="118"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="122"/>
     </row>
     <row r="13" spans="1:23" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="69">
@@ -31479,16 +31477,16 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F13" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A13)/$D$1</f>
         <v>0.22</v>
       </c>
       <c r="G13" s="86"/>
       <c r="H13" s="92">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="I13" s="92">
         <f t="shared" si="3"/>
-        <v>7.9999999999999988E-2</v>
-      </c>
-      <c r="I13" s="92">
-        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="K13" s="86"/>
@@ -31516,22 +31514,22 @@
         <v>0.16</v>
       </c>
       <c r="F14" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A14)/$D$1</f>
         <v>0.22</v>
       </c>
       <c r="G14" s="86"/>
       <c r="H14" s="92">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="I14" s="92">
         <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="I14" s="92">
-        <f t="shared" si="4"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="K14" s="86"/>
       <c r="L14" s="86"/>
       <c r="M14" s="89"/>
-      <c r="N14" s="119"/>
+      <c r="N14" s="123"/>
       <c r="O14" s="142" t="s">
         <v>71</v>
       </c>
@@ -31557,22 +31555,22 @@
         <v>0.18</v>
       </c>
       <c r="F15" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A15)/$D$1</f>
         <v>0.24</v>
       </c>
       <c r="G15" s="86"/>
       <c r="H15" s="92">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="I15" s="92">
         <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="I15" s="92">
-        <f t="shared" si="4"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="K15" s="86"/>
       <c r="L15" s="86"/>
       <c r="M15" s="86"/>
-      <c r="N15" s="121"/>
+      <c r="N15" s="125"/>
       <c r="O15" s="143"/>
       <c r="P15" s="89"/>
       <c r="Q15" s="89"/>
@@ -31599,16 +31597,16 @@
         <v>0.2</v>
       </c>
       <c r="F16" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A16)/$D$1</f>
         <v>0.24</v>
       </c>
       <c r="G16" s="86"/>
       <c r="H16" s="92">
+        <f t="shared" si="2"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="I16" s="92">
         <f t="shared" si="3"/>
-        <v>3.999999999999998E-2</v>
-      </c>
-      <c r="I16" s="92">
-        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
       <c r="K16" s="86"/>
@@ -31647,16 +31645,16 @@
         <v>0.22</v>
       </c>
       <c r="F17" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A17)/$D$1</f>
         <v>0.24</v>
       </c>
       <c r="G17" s="86"/>
       <c r="H17" s="92">
+        <f t="shared" si="2"/>
+        <v>1.999999999999999E-2</v>
+      </c>
+      <c r="I17" s="92">
         <f t="shared" si="3"/>
-        <v>1.999999999999999E-2</v>
-      </c>
-      <c r="I17" s="92">
-        <f t="shared" si="4"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="K17" s="86"/>
@@ -31689,29 +31687,29 @@
         <v>0.24</v>
       </c>
       <c r="F18" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A18)/$D$1</f>
         <v>0.24</v>
       </c>
       <c r="G18" s="86"/>
       <c r="H18" s="92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="92">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="92">
-        <f t="shared" si="4"/>
         <v>1.999999999999999E-2</v>
       </c>
       <c r="K18" s="86"/>
       <c r="L18" s="86"/>
       <c r="M18" s="86"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="136" t="str">
+      <c r="N18" s="123"/>
+      <c r="O18" s="148" t="str">
         <f>IF(N16&lt;O16, "да; гипотеза не противоречит опытным данным, ее следует принять.", "нет; гипотеза противоречит опытным данным, ее следует отвергнуть.")</f>
         <v>нет; гипотеза противоречит опытным данным, ее следует отвергнуть.</v>
       </c>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="138"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="149"/>
+      <c r="R18" s="150"/>
       <c r="S18" s="87"/>
       <c r="W18" s="86"/>
     </row>
@@ -31734,26 +31732,26 @@
         <v>0.26</v>
       </c>
       <c r="F19" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A19)/$D$1</f>
         <v>0.24</v>
       </c>
       <c r="G19" s="86"/>
       <c r="H19" s="92">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="I19" s="92">
         <f t="shared" si="3"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="I19" s="92">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K19" s="86"/>
       <c r="L19" s="86"/>
       <c r="M19" s="86"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="139"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="141"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="153"/>
       <c r="S19" s="87"/>
       <c r="W19" s="86"/>
     </row>
@@ -31776,16 +31774,16 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F20" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A20)/$D$1</f>
         <v>0.26</v>
       </c>
       <c r="G20" s="86"/>
       <c r="H20" s="92">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="I20" s="92">
         <f t="shared" si="3"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="I20" s="92">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K20" s="86"/>
@@ -31818,16 +31816,16 @@
         <v>0.3</v>
       </c>
       <c r="F21" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A21)/$D$1</f>
         <v>0.26</v>
       </c>
       <c r="G21" s="86"/>
       <c r="H21" s="92">
+        <f t="shared" si="2"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="I21" s="92">
         <f t="shared" si="3"/>
-        <v>3.999999999999998E-2</v>
-      </c>
-      <c r="I21" s="92">
-        <f t="shared" si="4"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="K21" s="86"/>
@@ -31860,16 +31858,16 @@
         <v>0.32</v>
       </c>
       <c r="F22" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A22)/$D$1</f>
         <v>0.26</v>
       </c>
       <c r="G22" s="86"/>
       <c r="H22" s="92">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="I22" s="92">
         <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="I22" s="92">
-        <f t="shared" si="4"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="K22" s="86"/>
@@ -31902,16 +31900,16 @@
         <v>0.34</v>
       </c>
       <c r="F23" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A23)/$D$1</f>
         <v>0.26</v>
       </c>
       <c r="G23" s="86"/>
       <c r="H23" s="92">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="I23" s="92">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="I23" s="92">
-        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
       <c r="K23" s="86"/>
@@ -31944,16 +31942,16 @@
         <v>0.36</v>
       </c>
       <c r="F24" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A24)/$D$1</f>
         <v>0.26</v>
       </c>
       <c r="G24" s="86"/>
       <c r="H24" s="92">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="I24" s="92">
         <f t="shared" si="3"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="I24" s="92">
-        <f t="shared" si="4"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="K24" s="86"/>
@@ -31986,16 +31984,16 @@
         <v>0.38</v>
       </c>
       <c r="F25" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A25)/$D$1</f>
         <v>0.26</v>
       </c>
       <c r="G25" s="86"/>
       <c r="H25" s="92">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="I25" s="92">
         <f t="shared" si="3"/>
-        <v>0.12</v>
-      </c>
-      <c r="I25" s="92">
-        <f t="shared" si="4"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="K25" s="86"/>
@@ -32028,16 +32026,16 @@
         <v>0.4</v>
       </c>
       <c r="F26" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A26)/$D$1</f>
         <v>0.26</v>
       </c>
       <c r="G26" s="86"/>
       <c r="H26" s="92">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I26" s="92">
         <f t="shared" si="3"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I26" s="92">
-        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
       <c r="K26" s="86"/>
@@ -32070,16 +32068,16 @@
         <v>0.42</v>
       </c>
       <c r="F27" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A27)/$D$1</f>
         <v>0.26</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="92">
+        <f t="shared" si="2"/>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="I27" s="92">
         <f t="shared" si="3"/>
-        <v>0.15999999999999998</v>
-      </c>
-      <c r="I27" s="92">
-        <f t="shared" si="4"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="K27" s="86"/>
@@ -32112,16 +32110,16 @@
         <v>0.44</v>
       </c>
       <c r="F28" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A28)/$D$1</f>
         <v>0.26</v>
       </c>
       <c r="G28" s="86"/>
       <c r="H28" s="92">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+      <c r="I28" s="92">
         <f t="shared" si="3"/>
-        <v>0.18</v>
-      </c>
-      <c r="I28" s="92">
-        <f t="shared" si="4"/>
         <v>0.15999999999999998</v>
       </c>
       <c r="K28" s="86"/>
@@ -32154,16 +32152,16 @@
         <v>0.46</v>
       </c>
       <c r="F29" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A29)/$D$1</f>
         <v>0.26</v>
       </c>
       <c r="G29" s="86"/>
       <c r="H29" s="92">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="92">
         <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="I29" s="92">
-        <f t="shared" si="4"/>
         <v>0.18</v>
       </c>
       <c r="K29" s="86"/>
@@ -32196,16 +32194,16 @@
         <v>0.48</v>
       </c>
       <c r="F30" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A30)/$D$1</f>
         <v>0.26</v>
       </c>
       <c r="G30" s="86"/>
       <c r="H30" s="92">
+        <f t="shared" si="2"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="I30" s="92">
         <f t="shared" si="3"/>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="I30" s="92">
-        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="K30" s="86"/>
@@ -32230,16 +32228,16 @@
         <v>0.5</v>
       </c>
       <c r="F31" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A31)/$D$1</f>
         <v>0.26</v>
       </c>
       <c r="G31" s="86"/>
       <c r="H31" s="92">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="I31" s="92">
         <f t="shared" si="3"/>
-        <v>0.24</v>
-      </c>
-      <c r="I31" s="92">
-        <f t="shared" si="4"/>
         <v>0.21999999999999997</v>
       </c>
       <c r="K31" s="86"/>
@@ -32264,16 +32262,16 @@
         <v>0.52</v>
       </c>
       <c r="F32" s="92">
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A32)/$D$1</f>
+        <v>0.26</v>
+      </c>
+      <c r="G32" s="86"/>
+      <c r="H32" s="92">
         <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
-      <c r="G32" s="86"/>
-      <c r="H32" s="92">
+      <c r="I32" s="92">
         <f t="shared" si="3"/>
-        <v>0.26</v>
-      </c>
-      <c r="I32" s="92">
-        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
       <c r="K32" s="86"/>
@@ -32298,16 +32296,16 @@
         <v>0.54</v>
       </c>
       <c r="F33" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A33)/$D$1</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="G33" s="86"/>
       <c r="H33" s="92">
+        <f t="shared" si="2"/>
+        <v>0.26</v>
+      </c>
+      <c r="I33" s="92">
         <f t="shared" si="3"/>
-        <v>0.26</v>
-      </c>
-      <c r="I33" s="92">
-        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
       <c r="K33" s="86"/>
@@ -32332,16 +32330,16 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="F34" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A34)/$D$1</f>
         <v>0.32</v>
       </c>
       <c r="G34" s="86"/>
       <c r="H34" s="92">
+        <f t="shared" si="2"/>
+        <v>0.24000000000000005</v>
+      </c>
+      <c r="I34" s="92">
         <f t="shared" si="3"/>
-        <v>0.24000000000000005</v>
-      </c>
-      <c r="I34" s="92">
-        <f t="shared" si="4"/>
         <v>0.22000000000000003</v>
       </c>
       <c r="K34" s="86"/>
@@ -32366,16 +32364,16 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F35" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A35)/$D$1</f>
         <v>0.32</v>
       </c>
       <c r="G35" s="86"/>
       <c r="H35" s="92">
+        <f t="shared" si="2"/>
+        <v>0.25999999999999995</v>
+      </c>
+      <c r="I35" s="92">
         <f t="shared" si="3"/>
-        <v>0.25999999999999995</v>
-      </c>
-      <c r="I35" s="92">
-        <f t="shared" si="4"/>
         <v>0.24000000000000005</v>
       </c>
       <c r="K35" s="86"/>
@@ -32400,16 +32398,16 @@
         <v>0.6</v>
       </c>
       <c r="F36" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A36)/$D$1</f>
         <v>0.32</v>
       </c>
       <c r="G36" s="86"/>
       <c r="H36" s="92">
+        <f t="shared" si="2"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="I36" s="92">
         <f t="shared" si="3"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="I36" s="92">
-        <f t="shared" si="4"/>
         <v>0.25999999999999995</v>
       </c>
       <c r="K36" s="86"/>
@@ -32434,16 +32432,16 @@
         <v>0.62</v>
       </c>
       <c r="F37" s="92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A37)/$D$1</f>
         <v>0.32</v>
       </c>
       <c r="G37" s="86"/>
       <c r="H37" s="92">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I37" s="92">
         <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="I37" s="92">
-        <f t="shared" si="4"/>
         <v>0.27999999999999997</v>
       </c>
       <c r="K37" s="86"/>
@@ -32468,16 +32466,16 @@
         <v>0.64</v>
       </c>
       <c r="F38" s="92">
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A38)/$D$1</f>
+        <v>0.32</v>
+      </c>
+      <c r="G38" s="86"/>
+      <c r="H38" s="92">
         <f t="shared" si="2"/>
         <v>0.32</v>
       </c>
-      <c r="G38" s="86"/>
-      <c r="H38" s="92">
+      <c r="I38" s="92">
         <f t="shared" si="3"/>
-        <v>0.32</v>
-      </c>
-      <c r="I38" s="92">
-        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="K38" s="86"/>
@@ -32502,16 +32500,16 @@
         <v>0.66</v>
       </c>
       <c r="F39" s="92">
-        <f t="shared" ref="F39:F56" si="5">COUNTIF($B$7:$B$56,"&lt;"&amp;A39)/$D$1</f>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A39)/$D$1</f>
         <v>0.32</v>
       </c>
       <c r="G39" s="86"/>
       <c r="H39" s="92">
+        <f t="shared" si="2"/>
+        <v>0.34</v>
+      </c>
+      <c r="I39" s="92">
         <f t="shared" si="3"/>
-        <v>0.34</v>
-      </c>
-      <c r="I39" s="92">
-        <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
       <c r="K39" s="86"/>
@@ -32536,16 +32534,16 @@
         <v>0.68</v>
       </c>
       <c r="F40" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A40)/$D$1</f>
         <v>0.34</v>
       </c>
       <c r="G40" s="86"/>
       <c r="H40" s="92">
+        <f t="shared" si="2"/>
+        <v>0.34</v>
+      </c>
+      <c r="I40" s="92">
         <f t="shared" si="3"/>
-        <v>0.34</v>
-      </c>
-      <c r="I40" s="92">
-        <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
       <c r="K40" s="86"/>
@@ -32570,16 +32568,16 @@
         <v>0.7</v>
       </c>
       <c r="F41" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A41)/$D$1</f>
         <v>0.34</v>
       </c>
       <c r="G41" s="86"/>
       <c r="H41" s="92">
+        <f t="shared" si="2"/>
+        <v>0.35999999999999993</v>
+      </c>
+      <c r="I41" s="92">
         <f t="shared" si="3"/>
-        <v>0.35999999999999993</v>
-      </c>
-      <c r="I41" s="92">
-        <f t="shared" si="4"/>
         <v>0.34</v>
       </c>
       <c r="K41" s="86"/>
@@ -32604,16 +32602,16 @@
         <v>0.72</v>
       </c>
       <c r="F42" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A42)/$D$1</f>
         <v>0.34</v>
       </c>
       <c r="G42" s="86"/>
       <c r="H42" s="92">
+        <f t="shared" si="2"/>
+        <v>0.37999999999999995</v>
+      </c>
+      <c r="I42" s="92">
         <f t="shared" si="3"/>
-        <v>0.37999999999999995</v>
-      </c>
-      <c r="I42" s="92">
-        <f t="shared" si="4"/>
         <v>0.35999999999999993</v>
       </c>
       <c r="K42" s="86"/>
@@ -32638,16 +32636,16 @@
         <v>0.74</v>
       </c>
       <c r="F43" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A43)/$D$1</f>
         <v>0.34</v>
       </c>
       <c r="G43" s="86"/>
       <c r="H43" s="92">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="I43" s="92">
         <f t="shared" si="3"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="I43" s="92">
-        <f t="shared" si="4"/>
         <v>0.37999999999999995</v>
       </c>
       <c r="K43" s="86"/>
@@ -32672,16 +32670,16 @@
         <v>0.76</v>
       </c>
       <c r="F44" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A44)/$D$1</f>
         <v>0.38</v>
       </c>
       <c r="G44" s="86"/>
       <c r="H44" s="92">
+        <f t="shared" si="2"/>
+        <v>0.38</v>
+      </c>
+      <c r="I44" s="92">
         <f t="shared" si="3"/>
-        <v>0.38</v>
-      </c>
-      <c r="I44" s="92">
-        <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
       <c r="K44" s="86"/>
@@ -32706,16 +32704,16 @@
         <v>0.78</v>
       </c>
       <c r="F45" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A45)/$D$1</f>
         <v>0.38</v>
       </c>
       <c r="G45" s="86"/>
       <c r="H45" s="92">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I45" s="92">
         <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="I45" s="92">
-        <f t="shared" si="4"/>
         <v>0.38</v>
       </c>
       <c r="K45" s="86"/>
@@ -32740,16 +32738,16 @@
         <v>0.8</v>
       </c>
       <c r="F46" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A46)/$D$1</f>
         <v>0.38</v>
       </c>
       <c r="G46" s="86"/>
       <c r="H46" s="92">
+        <f t="shared" si="2"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="I46" s="92">
         <f t="shared" si="3"/>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="I46" s="92">
-        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="K46" s="86"/>
@@ -32774,16 +32772,16 @@
         <v>0.82</v>
       </c>
       <c r="F47" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A47)/$D$1</f>
         <v>0.38</v>
       </c>
       <c r="G47" s="86"/>
       <c r="H47" s="92">
+        <f t="shared" si="2"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="I47" s="92">
         <f t="shared" si="3"/>
-        <v>0.43999999999999995</v>
-      </c>
-      <c r="I47" s="92">
-        <f t="shared" si="4"/>
         <v>0.42000000000000004</v>
       </c>
       <c r="K47" s="86"/>
@@ -32808,16 +32806,16 @@
         <v>0.84</v>
       </c>
       <c r="F48" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A48)/$D$1</f>
         <v>0.38</v>
       </c>
       <c r="G48" s="86"/>
       <c r="H48" s="92">
+        <f t="shared" si="2"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="I48" s="92">
         <f t="shared" si="3"/>
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="I48" s="92">
-        <f t="shared" si="4"/>
         <v>0.43999999999999995</v>
       </c>
       <c r="K48" s="86"/>
@@ -32842,16 +32840,16 @@
         <v>0.86</v>
       </c>
       <c r="F49" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A49)/$D$1</f>
         <v>0.38</v>
       </c>
       <c r="G49" s="86"/>
       <c r="H49" s="92">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
+      <c r="I49" s="92">
         <f t="shared" si="3"/>
-        <v>0.48</v>
-      </c>
-      <c r="I49" s="92">
-        <f t="shared" si="4"/>
         <v>0.45999999999999996</v>
       </c>
       <c r="K49" s="86"/>
@@ -32876,16 +32874,16 @@
         <v>0.88</v>
       </c>
       <c r="F50" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A50)/$D$1</f>
         <v>0.38</v>
       </c>
       <c r="G50" s="86"/>
       <c r="H50" s="92">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="92">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="I50" s="92">
-        <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
       <c r="K50" s="86"/>
@@ -32910,16 +32908,16 @@
         <v>0.9</v>
       </c>
       <c r="F51" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A51)/$D$1</f>
         <v>0.42</v>
       </c>
       <c r="G51" s="86"/>
       <c r="H51" s="92">
+        <f t="shared" si="2"/>
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="I51" s="92">
         <f t="shared" si="3"/>
-        <v>0.48000000000000004</v>
-      </c>
-      <c r="I51" s="92">
-        <f t="shared" si="4"/>
         <v>0.46</v>
       </c>
       <c r="K51" s="86"/>
@@ -32944,16 +32942,16 @@
         <v>0.92</v>
       </c>
       <c r="F52" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A52)/$D$1</f>
         <v>0.42</v>
       </c>
       <c r="G52" s="86"/>
       <c r="H52" s="92">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="92">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="I52" s="92">
-        <f t="shared" si="4"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="K52" s="86"/>
@@ -32978,16 +32976,16 @@
         <v>0.94</v>
       </c>
       <c r="F53" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A53)/$D$1</f>
         <v>0.42</v>
       </c>
       <c r="G53" s="86"/>
       <c r="H53" s="92">
+        <f t="shared" si="2"/>
+        <v>0.52</v>
+      </c>
+      <c r="I53" s="92">
         <f t="shared" si="3"/>
-        <v>0.52</v>
-      </c>
-      <c r="I53" s="92">
-        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="K53" s="86"/>
@@ -33012,16 +33010,16 @@
         <v>0.96</v>
       </c>
       <c r="F54" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A54)/$D$1</f>
         <v>0.42</v>
       </c>
       <c r="G54" s="86"/>
       <c r="H54" s="92">
+        <f t="shared" si="2"/>
+        <v>0.54</v>
+      </c>
+      <c r="I54" s="92">
         <f t="shared" si="3"/>
-        <v>0.54</v>
-      </c>
-      <c r="I54" s="92">
-        <f t="shared" si="4"/>
         <v>0.52</v>
       </c>
       <c r="K54" s="86"/>
@@ -33046,16 +33044,16 @@
         <v>0.98</v>
       </c>
       <c r="F55" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A55)/$D$1</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="G55" s="86"/>
       <c r="H55" s="92">
+        <f t="shared" si="2"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="I55" s="92">
         <f t="shared" si="3"/>
-        <v>0.41999999999999993</v>
-      </c>
-      <c r="I55" s="92">
-        <f t="shared" si="4"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="K55" s="86"/>
@@ -33080,16 +33078,16 @@
         <v>1</v>
       </c>
       <c r="F56" s="92">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($B$7:$B$56,"&lt;"&amp;A56)/$D$1</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="G56" s="86"/>
       <c r="H56" s="92">
+        <f t="shared" si="2"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="I56" s="92">
         <f t="shared" si="3"/>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="I56" s="92">
-        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="K56" s="86"/>
@@ -33097,6 +33095,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:R19"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="N14:N15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
@@ -33108,12 +33112,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:R19"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="N14:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33129,36 +33127,36 @@
   <dimension ref="A1:W102"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:N12"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16" style="98" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="98" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" style="98" customWidth="1"/>
-    <col min="4" max="7" width="8.81640625" style="98" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" style="98" customWidth="1"/>
-    <col min="9" max="9" width="12" style="98" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="97" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="97" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="97" customWidth="1"/>
+    <col min="4" max="7" width="8.81640625" style="97" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="97" customWidth="1"/>
+    <col min="9" max="9" width="12" style="97" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.81640625" style="88"/>
-    <col min="11" max="11" width="11.81640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" style="98" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.54296875" style="98" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" style="98" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.54296875" style="98" customWidth="1"/>
-    <col min="17" max="17" width="16.453125" style="98" customWidth="1"/>
-    <col min="18" max="16384" width="8.81640625" style="98"/>
+    <col min="11" max="11" width="11.81640625" style="97" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="97" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.54296875" style="97" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" style="97" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="97" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.54296875" style="97" customWidth="1"/>
+    <col min="17" max="17" width="16.453125" style="97" customWidth="1"/>
+    <col min="18" max="16384" width="8.81640625" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="139" t="s">
         <v>67</v>
       </c>
       <c r="E1" s="94" t="s">
@@ -33178,9 +33176,9 @@
       <c r="K1"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="126"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="139"/>
       <c r="D2" s="88"/>
       <c r="E2" s="94" t="s">
         <v>83</v>
@@ -33254,8 +33252,8 @@
       <c r="C4" s="91">
         <v>2</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="88"/>
       <c r="H4" s="94" t="s">
         <v>86</v>
@@ -33362,13 +33360,13 @@
       <c r="D7" s="88"/>
       <c r="F7" s="88"/>
       <c r="G7" s="88"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
       <c r="O7"/>
       <c r="P7" s="88"/>
       <c r="Q7" s="88"/>
@@ -33396,13 +33394,13 @@
         <v>0.1</v>
       </c>
       <c r="G8" s="88"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
       <c r="O8" s="88"/>
       <c r="P8" s="88"/>
       <c r="Q8" s="88"/>
@@ -33501,20 +33499,20 @@
         <v>9</v>
       </c>
       <c r="D11" s="88"/>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
       <c r="H11" s="88"/>
       <c r="I11" s="88"/>
       <c r="K11" s="88"/>
-      <c r="L11" s="117" t="str">
+      <c r="L11" s="121" t="str">
         <f>IF(N9="да", "гипотеза не противоречит опытным данным, ее можно принять.", "гипотеза противоречит опытным данным, ее стоит отвергнуть.")</f>
         <v>гипотеза противоречит опытным данным, ее стоит отвергнуть.</v>
       </c>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
       <c r="O11" s="88"/>
       <c r="P11" s="88"/>
       <c r="Q11" s="88"/>
@@ -33535,15 +33533,15 @@
         <v>10</v>
       </c>
       <c r="D12" s="88"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
       <c r="H12" s="88"/>
       <c r="I12" s="88"/>
       <c r="K12" s="88"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
       <c r="O12" s="88"/>
       <c r="P12" s="88"/>
       <c r="Q12" s="88"/>
@@ -35357,14 +35355,14 @@
   <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="9.1796875" style="1"/>
     <col min="9" max="9" width="9.1796875" style="86"/>
-    <col min="10" max="10" width="13.453125" style="151" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="109" customWidth="1"/>
     <col min="11" max="12" width="9.1796875" style="1"/>
     <col min="13" max="13" width="13.453125" style="1" customWidth="1"/>
     <col min="14" max="21" width="9.1796875" style="1"/>
@@ -35378,47 +35376,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="168" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
     </row>
     <row r="3" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="105"/>
-      <c r="Z3" s="102" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="104"/>
+      <c r="Z3" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="AA3" s="102" t="s">
+      <c r="AA3" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" s="104"/>
+      <c r="AB3" s="103"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
       <c r="J4" s="146" t="s">
         <v>93</v>
       </c>
@@ -35426,34 +35424,34 @@
         <f>CORREL(A5:A54,B5:B54)</f>
         <v>5.4663471967464496E-2</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="T4" s="102" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="T4" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="X4" s="102" t="s">
+      <c r="X4" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="Z4" s="99">
+      <c r="Z4" s="98">
         <f>SUM(V5:V54)</f>
-        <v>571</v>
-      </c>
-      <c r="AA4" s="99">
+        <v>607</v>
+      </c>
+      <c r="AA4" s="98">
         <f>SUM(W5:W54)</f>
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="AB4" s="86"/>
     </row>
@@ -35464,49 +35462,49 @@
       <c r="B5" s="91">
         <v>3.0167700000000002</v>
       </c>
-      <c r="E5" s="99">
-        <f>_xlfn.RANK.AVG(A5,$A$5:$A$54,1)</f>
+      <c r="E5" s="98">
+        <f t="shared" ref="E5:E36" si="0">_xlfn.RANK.AVG(A5,$A$5:$A$54,1)</f>
         <v>8</v>
       </c>
-      <c r="F5" s="99">
-        <f>_xlfn.RANK.AVG(B5,$B$5:$B$54,1)</f>
+      <c r="F5" s="98">
+        <f t="shared" ref="F5:F36" si="1">_xlfn.RANK.AVG(B5,$B$5:$B$54,1)</f>
         <v>30</v>
       </c>
-      <c r="G5" s="99">
-        <f>E5-F5</f>
+      <c r="G5" s="98">
+        <f t="shared" ref="G5:G36" si="2">E5-F5</f>
         <v>-22</v>
       </c>
-      <c r="H5" s="99">
-        <f>G5^2</f>
+      <c r="H5" s="98">
+        <f t="shared" ref="H5:H36" si="3">G5^2</f>
         <v>484</v>
       </c>
       <c r="J5" s="147"/>
       <c r="K5" s="145"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="T5" s="99">
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="T5" s="106">
         <v>1</v>
       </c>
-      <c r="U5" s="99">
-        <v>50</v>
-      </c>
-      <c r="V5" s="99">
+      <c r="U5" s="106">
+        <v>5</v>
+      </c>
+      <c r="V5" s="98">
         <f>COUNTIF(U5:$U$54,"&gt;"&amp;U5)</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="99">
+        <v>45</v>
+      </c>
+      <c r="W5" s="98">
         <f>COUNTIF(U5:$U$54,"&lt;"&amp;U5)</f>
-        <v>49</v>
-      </c>
-      <c r="X5" s="99">
+        <v>4</v>
+      </c>
+      <c r="X5" s="98">
         <f>V5-W5</f>
-        <v>-49</v>
-      </c>
-      <c r="AC5" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" s="102" t="s">
         <v>96</v>
       </c>
     </row>
@@ -35517,46 +35515,46 @@
       <c r="B6" s="91">
         <v>-0.17352000000000001</v>
       </c>
-      <c r="E6" s="99">
-        <f>_xlfn.RANK.AVG(A6,$A$5:$A$54,1)</f>
+      <c r="E6" s="98">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F6" s="99">
-        <f>_xlfn.RANK.AVG(B6,$B$5:$B$54,1)</f>
+      <c r="F6" s="98">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G6" s="99">
-        <f>E6-F6</f>
+      <c r="G6" s="98">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="H6" s="99">
-        <f>G6^2</f>
+      <c r="H6" s="98">
+        <f t="shared" si="3"/>
         <v>1156</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="T6" s="99">
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="T6" s="106">
         <v>2</v>
       </c>
-      <c r="U6" s="99">
+      <c r="U6" s="106">
         <v>19</v>
       </c>
-      <c r="V6" s="99">
+      <c r="V6" s="98">
         <f>COUNTIF(U6:$U$54,"&gt;"&amp;U6)</f>
-        <v>30</v>
-      </c>
-      <c r="W6" s="99">
+        <v>31</v>
+      </c>
+      <c r="W6" s="98">
         <f>COUNTIF(U6:$U$54,"&lt;"&amp;U6)</f>
-        <v>18</v>
-      </c>
-      <c r="X6" s="99">
-        <f t="shared" ref="X6:X54" si="0">V6-W6</f>
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="X6" s="98">
+        <f>V6-W6</f>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
@@ -35566,49 +35564,49 @@
       <c r="B7" s="91">
         <v>3.1695199999999999</v>
       </c>
-      <c r="E7" s="99">
-        <f>_xlfn.RANK.AVG(A7,$A$5:$A$54,1)</f>
+      <c r="E7" s="98">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="F7" s="99">
-        <f>_xlfn.RANK.AVG(B7,$B$5:$B$54,1)</f>
+      <c r="F7" s="98">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="G7" s="99">
-        <f>E7-F7</f>
+      <c r="G7" s="98">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="H7" s="99">
-        <f>G7^2</f>
+      <c r="H7" s="98">
+        <f t="shared" si="3"/>
         <v>289</v>
       </c>
       <c r="J7" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="158"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="155"/>
-      <c r="O7" s="155"/>
-      <c r="P7" s="155"/>
-      <c r="Q7" s="159"/>
-      <c r="T7" s="99">
+      <c r="K7" s="156"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="157"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="157"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="158"/>
+      <c r="T7" s="106">
         <v>3</v>
       </c>
-      <c r="U7" s="99">
-        <v>22</v>
-      </c>
-      <c r="V7" s="99">
+      <c r="U7" s="106">
+        <v>29</v>
+      </c>
+      <c r="V7" s="98">
         <f>COUNTIF(U7:$U$54,"&gt;"&amp;U7)</f>
-        <v>27</v>
-      </c>
-      <c r="W7" s="99">
+        <v>21</v>
+      </c>
+      <c r="W7" s="98">
         <f>COUNTIF(U7:$U$54,"&lt;"&amp;U7)</f>
-        <v>20</v>
-      </c>
-      <c r="X7" s="99">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="X7" s="98">
+        <f>V7-W7</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
@@ -35618,47 +35616,47 @@
       <c r="B8" s="91">
         <v>2.3263500000000001</v>
       </c>
-      <c r="E8" s="99">
-        <f>_xlfn.RANK.AVG(A8,$A$5:$A$54,1)</f>
+      <c r="E8" s="98">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F8" s="99">
-        <f>_xlfn.RANK.AVG(B8,$B$5:$B$54,1)</f>
+      <c r="F8" s="98">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G8" s="99">
-        <f>E8-F8</f>
+      <c r="G8" s="98">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H8" s="99">
-        <f>G8^2</f>
+      <c r="H8" s="98">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J8" s="154"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="160"/>
       <c r="Q8" s="161"/>
-      <c r="T8" s="99">
+      <c r="T8" s="106">
         <v>4</v>
       </c>
-      <c r="U8" s="99">
-        <v>14</v>
-      </c>
-      <c r="V8" s="99">
+      <c r="U8" s="106">
+        <v>24</v>
+      </c>
+      <c r="V8" s="98">
         <f>COUNTIF(U8:$U$54,"&gt;"&amp;U8)</f>
-        <v>33</v>
-      </c>
-      <c r="W8" s="99">
+        <v>25</v>
+      </c>
+      <c r="W8" s="98">
         <f>COUNTIF(U8:$U$54,"&lt;"&amp;U8)</f>
-        <v>13</v>
-      </c>
-      <c r="X8" s="99">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="X8" s="98">
+        <f>V8-W8</f>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
@@ -35668,20 +35666,20 @@
       <c r="B9" s="91">
         <v>1.91276</v>
       </c>
-      <c r="E9" s="99">
-        <f>_xlfn.RANK.AVG(A9,$A$5:$A$54,1)</f>
+      <c r="E9" s="98">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F9" s="99">
-        <f>_xlfn.RANK.AVG(B9,$B$5:$B$54,1)</f>
+      <c r="F9" s="98">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G9" s="99">
-        <f>E9-F9</f>
+      <c r="G9" s="98">
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="H9" s="99">
-        <f>G9^2</f>
+      <c r="H9" s="98">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="J9" s="147"/>
@@ -35692,23 +35690,23 @@
       <c r="O9" s="163"/>
       <c r="P9" s="163"/>
       <c r="Q9" s="164"/>
-      <c r="T9" s="99">
+      <c r="T9" s="106">
         <v>5</v>
       </c>
-      <c r="U9" s="99">
-        <v>15</v>
-      </c>
-      <c r="V9" s="99">
+      <c r="U9" s="106">
+        <v>38</v>
+      </c>
+      <c r="V9" s="98">
         <f>COUNTIF(U9:$U$54,"&gt;"&amp;U9)</f>
-        <v>32</v>
-      </c>
-      <c r="W9" s="99">
+        <v>12</v>
+      </c>
+      <c r="W9" s="98">
         <f>COUNTIF(U9:$U$54,"&lt;"&amp;U9)</f>
-        <v>13</v>
-      </c>
-      <c r="X9" s="99">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="X9" s="98">
+        <f>V9-W9</f>
+        <v>-21</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
@@ -35718,46 +35716,46 @@
       <c r="B10" s="91">
         <v>-0.43187900000000001</v>
       </c>
-      <c r="E10" s="99">
-        <f>_xlfn.RANK.AVG(A10,$A$5:$A$54,1)</f>
+      <c r="E10" s="98">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10" s="99">
-        <f>_xlfn.RANK.AVG(B10,$B$5:$B$54,1)</f>
+      <c r="F10" s="98">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G10" s="99">
-        <f>E10-F10</f>
+      <c r="G10" s="98">
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="H10" s="99">
-        <f>G10^2</f>
+      <c r="H10" s="98">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="T10" s="99">
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="T10" s="106">
         <v>6</v>
       </c>
-      <c r="U10" s="99">
-        <v>27</v>
-      </c>
-      <c r="V10" s="99">
+      <c r="U10" s="106">
+        <v>41</v>
+      </c>
+      <c r="V10" s="98">
         <f>COUNTIF(U10:$U$54,"&gt;"&amp;U10)</f>
-        <v>22</v>
-      </c>
-      <c r="W10" s="99">
+        <v>9</v>
+      </c>
+      <c r="W10" s="98">
         <f>COUNTIF(U10:$U$54,"&lt;"&amp;U10)</f>
-        <v>22</v>
-      </c>
-      <c r="X10" s="99">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="X10" s="98">
+        <f>V10-W10</f>
+        <v>-26</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
@@ -35767,20 +35765,20 @@
       <c r="B11" s="91">
         <v>3.9186800000000002</v>
       </c>
-      <c r="E11" s="99">
-        <f>_xlfn.RANK.AVG(A11,$A$5:$A$54,1)</f>
+      <c r="E11" s="98">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F11" s="99">
-        <f>_xlfn.RANK.AVG(B11,$B$5:$B$54,1)</f>
+      <c r="F11" s="98">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G11" s="99">
-        <f>E11-F11</f>
+      <c r="G11" s="98">
+        <f t="shared" si="2"/>
         <v>-33</v>
       </c>
-      <c r="H11" s="99">
-        <f>G11^2</f>
+      <c r="H11" s="98">
+        <f t="shared" si="3"/>
         <v>1089</v>
       </c>
       <c r="J11" s="146" t="s">
@@ -35789,33 +35787,33 @@
       <c r="K11" s="144">
         <v>50</v>
       </c>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="T11" s="99">
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="T11" s="106">
         <v>7</v>
       </c>
-      <c r="U11" s="99">
-        <v>47</v>
-      </c>
-      <c r="V11" s="99">
+      <c r="U11" s="106">
+        <v>50</v>
+      </c>
+      <c r="V11" s="98">
         <f>COUNTIF(U11:$U$54,"&gt;"&amp;U11)</f>
-        <v>2</v>
-      </c>
-      <c r="W11" s="99">
+        <v>0</v>
+      </c>
+      <c r="W11" s="98">
         <f>COUNTIF(U11:$U$54,"&lt;"&amp;U11)</f>
-        <v>41</v>
-      </c>
-      <c r="X11" s="99">
-        <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>43</v>
+      </c>
+      <c r="X11" s="98">
+        <f>V11-W11</f>
+        <v>-43</v>
       </c>
       <c r="AD11" s="1">
         <f>SUM(X5:X54)/(0.5*50*(50-1))</f>
-        <v>-6.775510204081632E-2</v>
+        <v>-8.979591836734694E-3</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
@@ -35825,47 +35823,47 @@
       <c r="B12" s="91">
         <v>2.7407699999999999</v>
       </c>
-      <c r="E12" s="99">
-        <f>_xlfn.RANK.AVG(A12,$A$5:$A$54,1)</f>
+      <c r="E12" s="98">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F12" s="99">
-        <f>_xlfn.RANK.AVG(B12,$B$5:$B$54,1)</f>
+      <c r="F12" s="98">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G12" s="99">
-        <f>E12-F12</f>
+      <c r="G12" s="98">
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H12" s="99">
-        <f>G12^2</f>
+      <c r="H12" s="98">
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="J12" s="147"/>
       <c r="K12" s="145"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="T12" s="99">
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="T12" s="106">
         <v>8</v>
       </c>
-      <c r="U12" s="99">
-        <v>10</v>
-      </c>
-      <c r="V12" s="99">
+      <c r="U12" s="106">
+        <v>30</v>
+      </c>
+      <c r="V12" s="98">
         <f>COUNTIF(U12:$U$54,"&gt;"&amp;U12)</f>
-        <v>33</v>
-      </c>
-      <c r="W12" s="99">
+        <v>17</v>
+      </c>
+      <c r="W12" s="98">
         <f>COUNTIF(U12:$U$54,"&lt;"&amp;U12)</f>
-        <v>9</v>
-      </c>
-      <c r="X12" s="99">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="X12" s="98">
+        <f>V12-W12</f>
+        <v>-8</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
@@ -35875,48 +35873,48 @@
       <c r="B13" s="91">
         <v>5.4681600000000001</v>
       </c>
-      <c r="E13" s="99">
-        <f>_xlfn.RANK.AVG(A13,$A$5:$A$54,1)</f>
+      <c r="E13" s="98">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F13" s="99">
-        <f>_xlfn.RANK.AVG(B13,$B$5:$B$54,1)</f>
+      <c r="F13" s="98">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="G13" s="99">
-        <f>E13-F13</f>
+      <c r="G13" s="98">
+        <f t="shared" si="2"/>
         <v>-26</v>
       </c>
-      <c r="H13" s="99">
-        <f>G13^2</f>
+      <c r="H13" s="98">
+        <f t="shared" si="3"/>
         <v>676</v>
       </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="T13" s="99">
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="T13" s="106">
         <v>9</v>
       </c>
-      <c r="U13" s="99">
-        <v>6</v>
-      </c>
-      <c r="V13" s="99">
+      <c r="U13" s="106">
+        <v>47</v>
+      </c>
+      <c r="V13" s="98">
         <f>COUNTIF(U13:$U$54,"&gt;"&amp;U13)</f>
-        <v>36</v>
-      </c>
-      <c r="W13" s="99">
+        <v>2</v>
+      </c>
+      <c r="W13" s="98">
         <f>COUNTIF(U13:$U$54,"&lt;"&amp;U13)</f>
-        <v>5</v>
-      </c>
-      <c r="X13" s="99">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AC13" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="98">
+        <f>V13-W13</f>
+        <v>-37</v>
+      </c>
+      <c r="AC13" s="102" t="s">
         <v>98</v>
       </c>
     </row>
@@ -35927,20 +35925,20 @@
       <c r="B14" s="91">
         <v>5.1539200000000003</v>
       </c>
-      <c r="E14" s="99">
-        <f>_xlfn.RANK.AVG(A14,$A$5:$A$54,1)</f>
+      <c r="E14" s="98">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="F14" s="99">
-        <f>_xlfn.RANK.AVG(B14,$B$5:$B$54,1)</f>
+      <c r="F14" s="98">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="G14" s="99">
-        <f>E14-F14</f>
+      <c r="G14" s="98">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H14" s="99">
-        <f>G14^2</f>
+      <c r="H14" s="98">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J14" s="146"/>
@@ -35948,29 +35946,29 @@
         <f>SUM(H5:H54)</f>
         <v>21054</v>
       </c>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="T14" s="99">
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="T14" s="106">
         <v>10</v>
       </c>
-      <c r="U14" s="99">
-        <v>9</v>
-      </c>
-      <c r="V14" s="99">
+      <c r="U14" s="106">
+        <v>2</v>
+      </c>
+      <c r="V14" s="98">
         <f>COUNTIF(U14:$U$54,"&gt;"&amp;U14)</f>
-        <v>33</v>
-      </c>
-      <c r="W14" s="99">
+        <v>39</v>
+      </c>
+      <c r="W14" s="98">
         <f>COUNTIF(U14:$U$54,"&lt;"&amp;U14)</f>
-        <v>7</v>
-      </c>
-      <c r="X14" s="99">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="X14" s="98">
+        <f>V14-W14</f>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
@@ -35980,47 +35978,47 @@
       <c r="B15" s="91">
         <v>1.16337</v>
       </c>
-      <c r="E15" s="99">
-        <f>_xlfn.RANK.AVG(A15,$A$5:$A$54,1)</f>
+      <c r="E15" s="98">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="F15" s="99">
-        <f>_xlfn.RANK.AVG(B15,$B$5:$B$54,1)</f>
+      <c r="F15" s="98">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G15" s="99">
-        <f>E15-F15</f>
+      <c r="G15" s="98">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="H15" s="99">
-        <f>G15^2</f>
+      <c r="H15" s="98">
+        <f t="shared" si="3"/>
         <v>1156</v>
       </c>
       <c r="J15" s="147"/>
       <c r="K15" s="145"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="T15" s="99">
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="T15" s="106">
         <v>11</v>
       </c>
-      <c r="U15" s="99">
-        <v>33</v>
-      </c>
-      <c r="V15" s="99">
+      <c r="U15" s="106">
+        <v>26</v>
+      </c>
+      <c r="V15" s="98">
         <f>COUNTIF(U15:$U$54,"&gt;"&amp;U15)</f>
-        <v>15</v>
-      </c>
-      <c r="W15" s="99">
+        <v>18</v>
+      </c>
+      <c r="W15" s="98">
         <f>COUNTIF(U15:$U$54,"&lt;"&amp;U15)</f>
-        <v>24</v>
-      </c>
-      <c r="X15" s="99">
-        <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>21</v>
+      </c>
+      <c r="X15" s="98">
+        <f>V15-W15</f>
+        <v>-3</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
@@ -36030,46 +36028,46 @@
       <c r="B16" s="91">
         <v>2.7423299999999999</v>
       </c>
-      <c r="E16" s="99">
-        <f>_xlfn.RANK.AVG(A16,$A$5:$A$54,1)</f>
+      <c r="E16" s="98">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F16" s="99">
-        <f>_xlfn.RANK.AVG(B16,$B$5:$B$54,1)</f>
+      <c r="F16" s="98">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G16" s="99">
-        <f>E16-F16</f>
+      <c r="G16" s="98">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H16" s="99">
-        <f>G16^2</f>
+      <c r="H16" s="98">
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="T16" s="99">
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="T16" s="106">
         <v>12</v>
       </c>
-      <c r="U16" s="99">
-        <v>45</v>
-      </c>
-      <c r="V16" s="99">
+      <c r="U16" s="106">
+        <v>33</v>
+      </c>
+      <c r="V16" s="98">
         <f>COUNTIF(U16:$U$54,"&gt;"&amp;U16)</f>
-        <v>3</v>
-      </c>
-      <c r="W16" s="99">
+        <v>13</v>
+      </c>
+      <c r="W16" s="98">
         <f>COUNTIF(U16:$U$54,"&lt;"&amp;U16)</f>
-        <v>35</v>
-      </c>
-      <c r="X16" s="99">
-        <f t="shared" si="0"/>
-        <v>-32</v>
+        <v>25</v>
+      </c>
+      <c r="X16" s="98">
+        <f>V16-W16</f>
+        <v>-12</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
@@ -36079,50 +36077,50 @@
       <c r="B17" s="91">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="E17" s="99">
-        <f>_xlfn.RANK.AVG(A17,$A$5:$A$54,1)</f>
+      <c r="E17" s="98">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F17" s="99">
-        <f>_xlfn.RANK.AVG(B17,$B$5:$B$54,1)</f>
+      <c r="F17" s="98">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G17" s="99">
-        <f>E17-F17</f>
+      <c r="G17" s="98">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="H17" s="99">
-        <f>G17^2</f>
+      <c r="H17" s="98">
+        <f t="shared" si="3"/>
         <v>529</v>
       </c>
-      <c r="J17" s="152"/>
-      <c r="K17" s="100">
+      <c r="J17" s="110"/>
+      <c r="K17" s="99">
         <f>1-(6*K14)/(K11*(K11^2-1))</f>
         <v>-1.0996398559423692E-2</v>
       </c>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="T17" s="99">
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="T17" s="106">
         <v>13</v>
       </c>
-      <c r="U17" s="99">
-        <v>26</v>
-      </c>
-      <c r="V17" s="99">
+      <c r="U17" s="106">
+        <v>1</v>
+      </c>
+      <c r="V17" s="98">
         <f>COUNTIF(U17:$U$54,"&gt;"&amp;U17)</f>
-        <v>19</v>
-      </c>
-      <c r="W17" s="99">
+        <v>37</v>
+      </c>
+      <c r="W17" s="98">
         <f>COUNTIF(U17:$U$54,"&lt;"&amp;U17)</f>
-        <v>18</v>
-      </c>
-      <c r="X17" s="99">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X17" s="98">
+        <f>V17-W17</f>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
@@ -36132,50 +36130,50 @@
       <c r="B18" s="91">
         <v>1.63781</v>
       </c>
-      <c r="E18" s="99">
-        <f>_xlfn.RANK.AVG(A18,$A$5:$A$54,1)</f>
+      <c r="E18" s="98">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F18" s="99">
-        <f>_xlfn.RANK.AVG(B18,$B$5:$B$54,1)</f>
+      <c r="F18" s="98">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G18" s="99">
-        <f>E18-F18</f>
+      <c r="G18" s="98">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H18" s="99">
-        <f>G18^2</f>
+      <c r="H18" s="98">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J18" s="152"/>
-      <c r="K18" s="100">
+      <c r="J18" s="110"/>
+      <c r="K18" s="99">
         <f>ABS(K17)</f>
         <v>1.0996398559423692E-2</v>
       </c>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="T18" s="99">
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="T18" s="106">
         <v>14</v>
       </c>
-      <c r="U18" s="99">
-        <v>16</v>
-      </c>
-      <c r="V18" s="99">
+      <c r="U18" s="106">
+        <v>18</v>
+      </c>
+      <c r="V18" s="98">
         <f>COUNTIF(U18:$U$54,"&gt;"&amp;U18)</f>
-        <v>26</v>
-      </c>
-      <c r="W18" s="99">
+        <v>22</v>
+      </c>
+      <c r="W18" s="98">
         <f>COUNTIF(U18:$U$54,"&lt;"&amp;U18)</f>
-        <v>10</v>
-      </c>
-      <c r="X18" s="99">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="X18" s="98">
+        <f>V18-W18</f>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -36185,41 +36183,41 @@
       <c r="B19" s="91">
         <v>3.81745</v>
       </c>
-      <c r="E19" s="99">
-        <f>_xlfn.RANK.AVG(A19,$A$5:$A$54,1)</f>
+      <c r="E19" s="98">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F19" s="99">
-        <f>_xlfn.RANK.AVG(B19,$B$5:$B$54,1)</f>
+      <c r="F19" s="98">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="G19" s="99">
-        <f>E19-F19</f>
+      <c r="G19" s="98">
+        <f t="shared" si="2"/>
         <v>-15</v>
       </c>
-      <c r="H19" s="99">
-        <f>G19^2</f>
+      <c r="H19" s="98">
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="T19" s="99">
+      <c r="T19" s="106">
         <v>15</v>
       </c>
-      <c r="U19" s="99">
-        <v>46</v>
-      </c>
-      <c r="V19" s="99">
+      <c r="U19" s="106">
+        <v>3</v>
+      </c>
+      <c r="V19" s="98">
         <f>COUNTIF(U19:$U$54,"&gt;"&amp;U19)</f>
-        <v>2</v>
-      </c>
-      <c r="W19" s="99">
+        <v>35</v>
+      </c>
+      <c r="W19" s="98">
         <f>COUNTIF(U19:$U$54,"&lt;"&amp;U19)</f>
-        <v>33</v>
-      </c>
-      <c r="X19" s="99">
-        <f t="shared" si="0"/>
-        <v>-31</v>
-      </c>
-      <c r="AA19" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="98">
+        <f>V19-W19</f>
+        <v>35</v>
+      </c>
+      <c r="AA19" s="102" t="s">
         <v>100</v>
       </c>
       <c r="AD19" s="1">
@@ -36234,43 +36232,43 @@
       <c r="B20" s="91">
         <v>4.2461700000000002</v>
       </c>
-      <c r="E20" s="99">
-        <f>_xlfn.RANK.AVG(A20,$A$5:$A$54,1)</f>
+      <c r="E20" s="98">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F20" s="99">
-        <f>_xlfn.RANK.AVG(B20,$B$5:$B$54,1)</f>
+      <c r="F20" s="98">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="G20" s="99">
-        <f>E20-F20</f>
+      <c r="G20" s="98">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="H20" s="99">
-        <f>G20^2</f>
+      <c r="H20" s="98">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J20" s="165" t="s">
         <v>99</v>
       </c>
       <c r="K20" s="166"/>
-      <c r="T20" s="99">
+      <c r="T20" s="106">
         <v>16</v>
       </c>
-      <c r="U20" s="99">
-        <v>28</v>
-      </c>
-      <c r="V20" s="99">
+      <c r="U20" s="106">
+        <v>21</v>
+      </c>
+      <c r="V20" s="98">
         <f>COUNTIF(U20:$U$54,"&gt;"&amp;U20)</f>
-        <v>17</v>
-      </c>
-      <c r="W20" s="99">
+        <v>20</v>
+      </c>
+      <c r="W20" s="98">
         <f>COUNTIF(U20:$U$54,"&lt;"&amp;U20)</f>
-        <v>17</v>
-      </c>
-      <c r="X20" s="99">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="X20" s="98">
+        <f>V20-W20</f>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
@@ -36280,52 +36278,52 @@
       <c r="B21" s="91">
         <v>4.3758400000000002</v>
       </c>
-      <c r="E21" s="99">
-        <f>_xlfn.RANK.AVG(A21,$A$5:$A$54,1)</f>
+      <c r="E21" s="98">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F21" s="99">
-        <f>_xlfn.RANK.AVG(B21,$B$5:$B$54,1)</f>
+      <c r="F21" s="98">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="G21" s="99">
-        <f>E21-F21</f>
+      <c r="G21" s="98">
+        <f t="shared" si="2"/>
         <v>-35</v>
       </c>
-      <c r="H21" s="99">
-        <f>G21^2</f>
+      <c r="H21" s="98">
+        <f t="shared" si="3"/>
         <v>1225</v>
       </c>
-      <c r="J21" s="136"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="138"/>
-      <c r="T21" s="99">
+      <c r="J21" s="148"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="149"/>
+      <c r="P21" s="149"/>
+      <c r="Q21" s="150"/>
+      <c r="T21" s="106">
         <v>17</v>
       </c>
-      <c r="U21" s="99">
-        <v>24</v>
-      </c>
-      <c r="V21" s="99">
+      <c r="U21" s="106">
+        <v>9</v>
+      </c>
+      <c r="V21" s="98">
         <f>COUNTIF(U21:$U$54,"&gt;"&amp;U21)</f>
-        <v>18</v>
-      </c>
-      <c r="W21" s="99">
+        <v>29</v>
+      </c>
+      <c r="W21" s="98">
         <f>COUNTIF(U21:$U$54,"&lt;"&amp;U21)</f>
-        <v>15</v>
-      </c>
-      <c r="X21" s="99">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AC21" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="98">
+        <f>V21-W21</f>
+        <v>25</v>
+      </c>
+      <c r="AC21" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="AD21" s="99">
+      <c r="AD21" s="98">
         <v>0.1</v>
       </c>
     </row>
@@ -36336,52 +36334,52 @@
       <c r="B22" s="91">
         <v>5.0537799999999997</v>
       </c>
-      <c r="E22" s="99">
-        <f>_xlfn.RANK.AVG(A22,$A$5:$A$54,1)</f>
+      <c r="E22" s="98">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F22" s="99">
-        <f>_xlfn.RANK.AVG(B22,$B$5:$B$54,1)</f>
+      <c r="F22" s="98">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="G22" s="99">
-        <f>E22-F22</f>
+      <c r="G22" s="98">
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="H22" s="99">
-        <f>G22^2</f>
+      <c r="H22" s="98">
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="J22" s="139"/>
-      <c r="K22" s="140"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="140"/>
-      <c r="O22" s="140"/>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="141"/>
-      <c r="T22" s="99">
+      <c r="J22" s="151"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="153"/>
+      <c r="T22" s="106">
         <v>18</v>
       </c>
-      <c r="U22" s="99">
-        <v>41</v>
-      </c>
-      <c r="V22" s="99">
+      <c r="U22" s="106">
+        <v>17</v>
+      </c>
+      <c r="V22" s="98">
         <f>COUNTIF(U22:$U$54,"&gt;"&amp;U22)</f>
-        <v>5</v>
-      </c>
-      <c r="W22" s="99">
+        <v>21</v>
+      </c>
+      <c r="W22" s="98">
         <f>COUNTIF(U22:$U$54,"&lt;"&amp;U22)</f>
-        <v>27</v>
-      </c>
-      <c r="X22" s="99">
-        <f t="shared" si="0"/>
-        <v>-22</v>
-      </c>
-      <c r="AC22" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="X22" s="98">
+        <f>V22-W22</f>
+        <v>10</v>
+      </c>
+      <c r="AC22" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="AD22" s="99">
+      <c r="AD22" s="98">
         <f>_xlfn.NORM.INV(0.9,0,AD19)</f>
         <v>0.12506662663022827</v>
       </c>
@@ -36393,46 +36391,46 @@
       <c r="B23" s="91">
         <v>5.10623</v>
       </c>
-      <c r="E23" s="99">
-        <f>_xlfn.RANK.AVG(A23,$A$5:$A$54,1)</f>
+      <c r="E23" s="98">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F23" s="99">
-        <f>_xlfn.RANK.AVG(B23,$B$5:$B$54,1)</f>
+      <c r="F23" s="98">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="G23" s="99">
-        <f>E23-F23</f>
+      <c r="G23" s="98">
+        <f t="shared" si="2"/>
         <v>-24</v>
       </c>
-      <c r="H23" s="99">
-        <f>G23^2</f>
+      <c r="H23" s="98">
+        <f t="shared" si="3"/>
         <v>576</v>
       </c>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="157"/>
-      <c r="T23" s="99">
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="T23" s="106">
         <v>19</v>
       </c>
-      <c r="U23" s="99">
-        <v>18</v>
-      </c>
-      <c r="V23" s="99">
+      <c r="U23" s="106">
+        <v>11</v>
+      </c>
+      <c r="V23" s="98">
         <f>COUNTIF(U23:$U$54,"&gt;"&amp;U23)</f>
-        <v>20</v>
-      </c>
-      <c r="W23" s="99">
+        <v>26</v>
+      </c>
+      <c r="W23" s="98">
         <f>COUNTIF(U23:$U$54,"&lt;"&amp;U23)</f>
-        <v>11</v>
-      </c>
-      <c r="X23" s="99">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="X23" s="98">
+        <f>V23-W23</f>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
@@ -36442,39 +36440,39 @@
       <c r="B24" s="91">
         <v>-1.6568700000000001</v>
       </c>
-      <c r="E24" s="99">
-        <f>_xlfn.RANK.AVG(A24,$A$5:$A$54,1)</f>
+      <c r="E24" s="98">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F24" s="99">
-        <f>_xlfn.RANK.AVG(B24,$B$5:$B$54,1)</f>
+      <c r="F24" s="98">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G24" s="99">
-        <f>E24-F24</f>
+      <c r="G24" s="98">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H24" s="99">
-        <f>G24^2</f>
+      <c r="H24" s="98">
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="T24" s="99">
+      <c r="T24" s="106">
         <v>20</v>
       </c>
-      <c r="U24" s="99">
-        <v>12</v>
-      </c>
-      <c r="V24" s="99">
+      <c r="U24" s="106">
+        <v>48</v>
+      </c>
+      <c r="V24" s="98">
         <f>COUNTIF(U24:$U$54,"&gt;"&amp;U24)</f>
-        <v>22</v>
-      </c>
-      <c r="W24" s="99">
+        <v>1</v>
+      </c>
+      <c r="W24" s="98">
         <f>COUNTIF(U24:$U$54,"&lt;"&amp;U24)</f>
-        <v>8</v>
-      </c>
-      <c r="X24" s="99">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="X24" s="98">
+        <f>V24-W24</f>
+        <v>-28</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
@@ -36484,20 +36482,20 @@
       <c r="B25" s="91">
         <v>2.9357099999999998</v>
       </c>
-      <c r="E25" s="99">
-        <f>_xlfn.RANK.AVG(A25,$A$5:$A$54,1)</f>
+      <c r="E25" s="98">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F25" s="99">
-        <f>_xlfn.RANK.AVG(B25,$B$5:$B$54,1)</f>
+      <c r="F25" s="98">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="G25" s="99">
-        <f>E25-F25</f>
+      <c r="G25" s="98">
+        <f t="shared" si="2"/>
         <v>-26</v>
       </c>
-      <c r="H25" s="99">
-        <f>G25^2</f>
+      <c r="H25" s="98">
+        <f t="shared" si="3"/>
         <v>676</v>
       </c>
       <c r="J25" s="146"/>
@@ -36510,25 +36508,25 @@
         <f>_xlfn.T.INV(0.9,48)</f>
         <v>1.2994388786713924</v>
       </c>
-      <c r="T25" s="99">
+      <c r="T25" s="106">
         <v>21</v>
       </c>
-      <c r="U25" s="99">
-        <v>8</v>
-      </c>
-      <c r="V25" s="99">
+      <c r="U25" s="106">
+        <v>45</v>
+      </c>
+      <c r="V25" s="98">
         <f>COUNTIF(U25:$U$54,"&gt;"&amp;U25)</f>
-        <v>23</v>
-      </c>
-      <c r="W25" s="99">
+        <v>2</v>
+      </c>
+      <c r="W25" s="98">
         <f>COUNTIF(U25:$U$54,"&lt;"&amp;U25)</f>
-        <v>6</v>
-      </c>
-      <c r="X25" s="99">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AC25" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" s="98">
+        <f>V25-W25</f>
+        <v>-25</v>
+      </c>
+      <c r="AC25" s="102" t="s">
         <v>102</v>
       </c>
     </row>
@@ -36539,45 +36537,45 @@
       <c r="B26" s="91">
         <v>1.49274</v>
       </c>
-      <c r="E26" s="99">
-        <f>_xlfn.RANK.AVG(A26,$A$5:$A$54,1)</f>
+      <c r="E26" s="98">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F26" s="99">
-        <f>_xlfn.RANK.AVG(B26,$B$5:$B$54,1)</f>
+      <c r="F26" s="98">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G26" s="99">
-        <f>E26-F26</f>
+      <c r="G26" s="98">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H26" s="99">
-        <f>G26^2</f>
+      <c r="H26" s="98">
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="J26" s="154"/>
-      <c r="K26" s="148"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="148"/>
-      <c r="T26" s="99">
+      <c r="J26" s="155"/>
+      <c r="K26" s="167"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="167"/>
+      <c r="T26" s="106">
         <v>22</v>
       </c>
-      <c r="U26" s="99">
-        <v>40</v>
-      </c>
-      <c r="V26" s="99">
+      <c r="U26" s="106">
+        <v>37</v>
+      </c>
+      <c r="V26" s="98">
         <f>COUNTIF(U26:$U$54,"&gt;"&amp;U26)</f>
-        <v>5</v>
-      </c>
-      <c r="W26" s="99">
+        <v>7</v>
+      </c>
+      <c r="W26" s="98">
         <f>COUNTIF(U26:$U$54,"&lt;"&amp;U26)</f>
-        <v>23</v>
-      </c>
-      <c r="X26" s="99">
-        <f t="shared" si="0"/>
-        <v>-18</v>
-      </c>
-      <c r="AC26" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="X26" s="98">
+        <f>V26-W26</f>
+        <v>-14</v>
+      </c>
+      <c r="AC26" s="102" t="s">
         <v>103</v>
       </c>
     </row>
@@ -36588,43 +36586,43 @@
       <c r="B27" s="91">
         <v>3.99708</v>
       </c>
-      <c r="E27" s="99">
-        <f>_xlfn.RANK.AVG(A27,$A$5:$A$54,1)</f>
+      <c r="E27" s="98">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F27" s="99">
-        <f>_xlfn.RANK.AVG(B27,$B$5:$B$54,1)</f>
+      <c r="F27" s="98">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="G27" s="99">
-        <f>E27-F27</f>
+      <c r="G27" s="98">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H27" s="99">
-        <f>G27^2</f>
+      <c r="H27" s="98">
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="J27" s="147"/>
       <c r="K27" s="145"/>
       <c r="M27" s="147"/>
       <c r="N27" s="145"/>
-      <c r="T27" s="99">
+      <c r="T27" s="106">
         <v>23</v>
       </c>
-      <c r="U27" s="99">
-        <v>32</v>
-      </c>
-      <c r="V27" s="99">
+      <c r="U27" s="106">
+        <v>49</v>
+      </c>
+      <c r="V27" s="98">
         <f>COUNTIF(U27:$U$54,"&gt;"&amp;U27)</f>
-        <v>11</v>
-      </c>
-      <c r="W27" s="99">
+        <v>0</v>
+      </c>
+      <c r="W27" s="98">
         <f>COUNTIF(U27:$U$54,"&lt;"&amp;U27)</f>
-        <v>16</v>
-      </c>
-      <c r="X27" s="99">
-        <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>27</v>
+      </c>
+      <c r="X27" s="98">
+        <f>V27-W27</f>
+        <v>-27</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
@@ -36634,38 +36632,38 @@
       <c r="B28" s="91">
         <v>4.6470500000000001</v>
       </c>
-      <c r="E28" s="99">
-        <f>_xlfn.RANK.AVG(A28,$A$5:$A$54,1)</f>
+      <c r="E28" s="98">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="F28" s="99">
-        <f>_xlfn.RANK.AVG(B28,$B$5:$B$54,1)</f>
+      <c r="F28" s="98">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="G28" s="99">
-        <f>E28-F28</f>
+      <c r="G28" s="98">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H28" s="99">
-        <f>G28^2</f>
+      <c r="H28" s="98">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T28" s="99">
+      <c r="T28" s="106">
         <v>24</v>
       </c>
-      <c r="U28" s="99">
-        <v>48</v>
-      </c>
-      <c r="V28" s="99">
+      <c r="U28" s="106">
+        <v>44</v>
+      </c>
+      <c r="V28" s="98">
         <f>COUNTIF(U28:$U$54,"&gt;"&amp;U28)</f>
         <v>1</v>
       </c>
-      <c r="W28" s="99">
+      <c r="W28" s="98">
         <f>COUNTIF(U28:$U$54,"&lt;"&amp;U28)</f>
         <v>25</v>
       </c>
-      <c r="X28" s="99">
-        <f t="shared" si="0"/>
+      <c r="X28" s="98">
+        <f>V28-W28</f>
         <v>-24</v>
       </c>
     </row>
@@ -36676,40 +36674,40 @@
       <c r="B29" s="91">
         <v>5.2593199999999998</v>
       </c>
-      <c r="E29" s="99">
-        <f>_xlfn.RANK.AVG(A29,$A$5:$A$54,1)</f>
+      <c r="E29" s="98">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F29" s="99">
-        <f>_xlfn.RANK.AVG(B29,$B$5:$B$54,1)</f>
+      <c r="F29" s="98">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="G29" s="99">
-        <f>E29-F29</f>
+      <c r="G29" s="98">
+        <f t="shared" si="2"/>
         <v>-38</v>
       </c>
-      <c r="H29" s="99">
-        <f>G29^2</f>
+      <c r="H29" s="98">
+        <f t="shared" si="3"/>
         <v>1444</v>
       </c>
-      <c r="K29" s="157"/>
-      <c r="T29" s="99">
+      <c r="K29" s="112"/>
+      <c r="T29" s="106">
         <v>25</v>
       </c>
-      <c r="U29" s="99">
-        <v>35</v>
-      </c>
-      <c r="V29" s="99">
+      <c r="U29" s="106">
+        <v>20</v>
+      </c>
+      <c r="V29" s="98">
         <f>COUNTIF(U29:$U$54,"&gt;"&amp;U29)</f>
-        <v>8</v>
-      </c>
-      <c r="W29" s="99">
+        <v>15</v>
+      </c>
+      <c r="W29" s="98">
         <f>COUNTIF(U29:$U$54,"&lt;"&amp;U29)</f>
-        <v>17</v>
-      </c>
-      <c r="X29" s="99">
-        <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>10</v>
+      </c>
+      <c r="X29" s="98">
+        <f>V29-W29</f>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
@@ -36719,40 +36717,40 @@
       <c r="B30" s="91">
         <v>2.8339300000000001</v>
       </c>
-      <c r="E30" s="99">
-        <f>_xlfn.RANK.AVG(A30,$A$5:$A$54,1)</f>
+      <c r="E30" s="98">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="F30" s="99">
-        <f>_xlfn.RANK.AVG(B30,$B$5:$B$54,1)</f>
+      <c r="F30" s="98">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="G30" s="99">
-        <f>E30-F30</f>
+      <c r="G30" s="98">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H30" s="99">
-        <f>G30^2</f>
+      <c r="H30" s="98">
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="K30" s="157"/>
-      <c r="T30" s="99">
+      <c r="K30" s="112"/>
+      <c r="T30" s="106">
         <v>26</v>
       </c>
-      <c r="U30" s="99">
-        <v>4</v>
-      </c>
-      <c r="V30" s="99">
+      <c r="U30" s="106">
+        <v>23</v>
+      </c>
+      <c r="V30" s="98">
         <f>COUNTIF(U30:$U$54,"&gt;"&amp;U30)</f>
-        <v>21</v>
-      </c>
-      <c r="W30" s="99">
+        <v>13</v>
+      </c>
+      <c r="W30" s="98">
         <f>COUNTIF(U30:$U$54,"&lt;"&amp;U30)</f>
-        <v>3</v>
-      </c>
-      <c r="X30" s="99">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="X30" s="98">
+        <f>V30-W30</f>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36762,39 +36760,39 @@
       <c r="B31" s="91">
         <v>1.0916300000000001</v>
       </c>
-      <c r="E31" s="99">
-        <f>_xlfn.RANK.AVG(A31,$A$5:$A$54,1)</f>
+      <c r="E31" s="98">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F31" s="99">
-        <f>_xlfn.RANK.AVG(B31,$B$5:$B$54,1)</f>
+      <c r="F31" s="98">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G31" s="99">
-        <f>E31-F31</f>
+      <c r="G31" s="98">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H31" s="99">
-        <f>G31^2</f>
+      <c r="H31" s="98">
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="T31" s="99">
+      <c r="T31" s="106">
         <v>27</v>
       </c>
-      <c r="U31" s="99">
-        <v>39</v>
-      </c>
-      <c r="V31" s="99">
+      <c r="U31" s="106">
+        <v>34</v>
+      </c>
+      <c r="V31" s="98">
         <f>COUNTIF(U31:$U$54,"&gt;"&amp;U31)</f>
-        <v>4</v>
-      </c>
-      <c r="W31" s="99">
+        <v>7</v>
+      </c>
+      <c r="W31" s="98">
         <f>COUNTIF(U31:$U$54,"&lt;"&amp;U31)</f>
-        <v>19</v>
-      </c>
-      <c r="X31" s="99">
-        <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>16</v>
+      </c>
+      <c r="X31" s="98">
+        <f>V31-W31</f>
+        <v>-9</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
@@ -36804,49 +36802,49 @@
       <c r="B32" s="91">
         <v>-0.74036199999999996</v>
       </c>
-      <c r="E32" s="99">
-        <f>_xlfn.RANK.AVG(A32,$A$5:$A$54,1)</f>
+      <c r="E32" s="98">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F32" s="99">
-        <f>_xlfn.RANK.AVG(B32,$B$5:$B$54,1)</f>
+      <c r="F32" s="98">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G32" s="99">
-        <f>E32-F32</f>
+      <c r="G32" s="98">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H32" s="99">
-        <f>G32^2</f>
+      <c r="H32" s="98">
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="J32" s="167" t="s">
+      <c r="J32" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="K32" s="167"/>
-      <c r="L32" s="167" t="s">
+      <c r="K32" s="154"/>
+      <c r="L32" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="M32" s="167"/>
-      <c r="N32" s="167"/>
-      <c r="O32" s="153"/>
-      <c r="T32" s="99">
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="111"/>
+      <c r="T32" s="106">
         <v>28</v>
       </c>
-      <c r="U32" s="99">
-        <v>3</v>
-      </c>
-      <c r="V32" s="99">
+      <c r="U32" s="106">
+        <v>31</v>
+      </c>
+      <c r="V32" s="98">
         <f>COUNTIF(U32:$U$54,"&gt;"&amp;U32)</f>
-        <v>20</v>
-      </c>
-      <c r="W32" s="99">
+        <v>8</v>
+      </c>
+      <c r="W32" s="98">
         <f>COUNTIF(U32:$U$54,"&lt;"&amp;U32)</f>
-        <v>2</v>
-      </c>
-      <c r="X32" s="99">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="X32" s="98">
+        <f>V32-W32</f>
+        <v>-6</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
@@ -36856,45 +36854,45 @@
       <c r="B33" s="91">
         <v>2.7600500000000001</v>
       </c>
-      <c r="E33" s="99">
-        <f>_xlfn.RANK.AVG(A33,$A$5:$A$54,1)</f>
+      <c r="E33" s="98">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F33" s="99">
-        <f>_xlfn.RANK.AVG(B33,$B$5:$B$54,1)</f>
+      <c r="F33" s="98">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="G33" s="99">
-        <f>E33-F33</f>
+      <c r="G33" s="98">
+        <f t="shared" si="2"/>
         <v>-15</v>
       </c>
-      <c r="H33" s="99">
-        <f>G33^2</f>
+      <c r="H33" s="98">
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="J33" s="167"/>
-      <c r="K33" s="167"/>
-      <c r="L33" s="167"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="153"/>
-      <c r="T33" s="99">
+      <c r="J33" s="154"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="111"/>
+      <c r="T33" s="106">
         <v>29</v>
       </c>
-      <c r="U33" s="99">
-        <v>43</v>
-      </c>
-      <c r="V33" s="99">
+      <c r="U33" s="106">
+        <v>14</v>
+      </c>
+      <c r="V33" s="98">
         <f>COUNTIF(U33:$U$54,"&gt;"&amp;U33)</f>
-        <v>2</v>
-      </c>
-      <c r="W33" s="99">
+        <v>14</v>
+      </c>
+      <c r="W33" s="98">
         <f>COUNTIF(U33:$U$54,"&lt;"&amp;U33)</f>
-        <v>19</v>
-      </c>
-      <c r="X33" s="99">
-        <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>7</v>
+      </c>
+      <c r="X33" s="98">
+        <f>V33-W33</f>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
@@ -36904,45 +36902,45 @@
       <c r="B34" s="91">
         <v>1.9047400000000001</v>
       </c>
-      <c r="E34" s="99">
-        <f>_xlfn.RANK.AVG(A34,$A$5:$A$54,1)</f>
+      <c r="E34" s="98">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F34" s="99">
-        <f>_xlfn.RANK.AVG(B34,$B$5:$B$54,1)</f>
+      <c r="F34" s="98">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G34" s="99">
-        <f>E34-F34</f>
+      <c r="G34" s="98">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H34" s="99">
-        <f>G34^2</f>
+      <c r="H34" s="98">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="J34" s="167"/>
-      <c r="K34" s="167"/>
-      <c r="L34" s="167"/>
-      <c r="M34" s="167"/>
-      <c r="N34" s="167"/>
-      <c r="O34" s="153"/>
-      <c r="T34" s="99">
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="111"/>
+      <c r="T34" s="106">
         <v>30</v>
       </c>
-      <c r="U34" s="99">
+      <c r="U34" s="106">
+        <v>42</v>
+      </c>
+      <c r="V34" s="98">
+        <f>COUNTIF(U34:$U$54,"&gt;"&amp;U34)</f>
         <v>2</v>
       </c>
-      <c r="V34" s="99">
-        <f>COUNTIF(U34:$U$54,"&gt;"&amp;U34)</f>
-        <v>19</v>
-      </c>
-      <c r="W34" s="99">
+      <c r="W34" s="98">
         <f>COUNTIF(U34:$U$54,"&lt;"&amp;U34)</f>
-        <v>1</v>
-      </c>
-      <c r="X34" s="99">
-        <f t="shared" si="0"/>
         <v>18</v>
+      </c>
+      <c r="X34" s="98">
+        <f>V34-W34</f>
+        <v>-16</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
@@ -36952,39 +36950,39 @@
       <c r="B35" s="91">
         <v>3.0217100000000001</v>
       </c>
-      <c r="E35" s="99">
-        <f>_xlfn.RANK.AVG(A35,$A$5:$A$54,1)</f>
+      <c r="E35" s="98">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F35" s="99">
-        <f>_xlfn.RANK.AVG(B35,$B$5:$B$54,1)</f>
+      <c r="F35" s="98">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="G35" s="99">
-        <f>E35-F35</f>
+      <c r="G35" s="98">
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="H35" s="99">
-        <f>G35^2</f>
+      <c r="H35" s="98">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="T35" s="99">
+      <c r="T35" s="106">
         <v>31</v>
       </c>
-      <c r="U35" s="99">
-        <v>49</v>
-      </c>
-      <c r="V35" s="99">
+      <c r="U35" s="106">
+        <v>8</v>
+      </c>
+      <c r="V35" s="98">
         <f>COUNTIF(U35:$U$54,"&gt;"&amp;U35)</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="99">
+        <v>16</v>
+      </c>
+      <c r="W35" s="98">
         <f>COUNTIF(U35:$U$54,"&lt;"&amp;U35)</f>
-        <v>19</v>
-      </c>
-      <c r="X35" s="99">
-        <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>3</v>
+      </c>
+      <c r="X35" s="98">
+        <f>V35-W35</f>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
@@ -36994,39 +36992,39 @@
       <c r="B36" s="91">
         <v>3.7261500000000001</v>
       </c>
-      <c r="E36" s="99">
-        <f>_xlfn.RANK.AVG(A36,$A$5:$A$54,1)</f>
+      <c r="E36" s="98">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="F36" s="99">
-        <f>_xlfn.RANK.AVG(B36,$B$5:$B$54,1)</f>
+      <c r="F36" s="98">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="G36" s="99">
-        <f>E36-F36</f>
+      <c r="G36" s="98">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H36" s="99">
-        <f>G36^2</f>
+      <c r="H36" s="98">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="T36" s="99">
+      <c r="T36" s="106">
         <v>32</v>
       </c>
-      <c r="U36" s="99">
-        <v>38</v>
-      </c>
-      <c r="V36" s="99">
+      <c r="U36" s="106">
+        <v>22</v>
+      </c>
+      <c r="V36" s="98">
         <f>COUNTIF(U36:$U$54,"&gt;"&amp;U36)</f>
+        <v>10</v>
+      </c>
+      <c r="W36" s="98">
+        <f>COUNTIF(U36:$U$54,"&lt;"&amp;U36)</f>
+        <v>8</v>
+      </c>
+      <c r="X36" s="98">
+        <f>V36-W36</f>
         <v>2</v>
-      </c>
-      <c r="W36" s="99">
-        <f>COUNTIF(U36:$U$54,"&lt;"&amp;U36)</f>
-        <v>16</v>
-      </c>
-      <c r="X36" s="99">
-        <f t="shared" si="0"/>
-        <v>-14</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
@@ -37036,39 +37034,39 @@
       <c r="B37" s="91">
         <v>1.72692</v>
       </c>
-      <c r="E37" s="99">
-        <f>_xlfn.RANK.AVG(A37,$A$5:$A$54,1)</f>
+      <c r="E37" s="98">
+        <f t="shared" ref="E37:E54" si="4">_xlfn.RANK.AVG(A37,$A$5:$A$54,1)</f>
         <v>14</v>
       </c>
-      <c r="F37" s="99">
-        <f>_xlfn.RANK.AVG(B37,$B$5:$B$54,1)</f>
+      <c r="F37" s="98">
+        <f t="shared" ref="F37:F54" si="5">_xlfn.RANK.AVG(B37,$B$5:$B$54,1)</f>
         <v>18</v>
       </c>
-      <c r="G37" s="99">
-        <f>E37-F37</f>
+      <c r="G37" s="98">
+        <f t="shared" ref="G37:G68" si="6">E37-F37</f>
         <v>-4</v>
       </c>
-      <c r="H37" s="99">
-        <f>G37^2</f>
+      <c r="H37" s="98">
+        <f t="shared" ref="H37:H68" si="7">G37^2</f>
         <v>16</v>
       </c>
-      <c r="T37" s="99">
+      <c r="T37" s="106">
         <v>33</v>
       </c>
-      <c r="U37" s="99">
-        <v>37</v>
-      </c>
-      <c r="V37" s="99">
+      <c r="U37" s="106">
+        <v>27</v>
+      </c>
+      <c r="V37" s="98">
         <f>COUNTIF(U37:$U$54,"&gt;"&amp;U37)</f>
-        <v>2</v>
-      </c>
-      <c r="W37" s="99">
+        <v>8</v>
+      </c>
+      <c r="W37" s="98">
         <f>COUNTIF(U37:$U$54,"&lt;"&amp;U37)</f>
-        <v>15</v>
-      </c>
-      <c r="X37" s="99">
-        <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>9</v>
+      </c>
+      <c r="X37" s="98">
+        <f>V37-W37</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
@@ -37078,39 +37076,39 @@
       <c r="B38" s="91">
         <v>3.8111799999999998</v>
       </c>
-      <c r="E38" s="99">
-        <f>_xlfn.RANK.AVG(A38,$A$5:$A$54,1)</f>
+      <c r="E38" s="98">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="F38" s="99">
-        <f>_xlfn.RANK.AVG(B38,$B$5:$B$54,1)</f>
+      <c r="F38" s="98">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="G38" s="99">
-        <f>E38-F38</f>
+      <c r="G38" s="98">
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="H38" s="99">
-        <f>G38^2</f>
+      <c r="H38" s="98">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T38" s="99">
+      <c r="T38" s="106">
         <v>34</v>
       </c>
-      <c r="U38" s="99">
-        <v>11</v>
-      </c>
-      <c r="V38" s="99">
+      <c r="U38" s="106">
+        <v>4</v>
+      </c>
+      <c r="V38" s="98">
         <f>COUNTIF(U38:$U$54,"&gt;"&amp;U38)</f>
-        <v>13</v>
-      </c>
-      <c r="W38" s="99">
+        <v>16</v>
+      </c>
+      <c r="W38" s="98">
         <f>COUNTIF(U38:$U$54,"&lt;"&amp;U38)</f>
-        <v>3</v>
-      </c>
-      <c r="X38" s="99">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="X38" s="98">
+        <f>V38-W38</f>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
@@ -37120,39 +37118,39 @@
       <c r="B39" s="91">
         <v>0.27818100000000001</v>
       </c>
-      <c r="E39" s="99">
-        <f>_xlfn.RANK.AVG(A39,$A$5:$A$54,1)</f>
+      <c r="E39" s="98">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="F39" s="99">
-        <f>_xlfn.RANK.AVG(B39,$B$5:$B$54,1)</f>
+      <c r="F39" s="98">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G39" s="99">
-        <f>E39-F39</f>
+      <c r="G39" s="98">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="H39" s="99">
-        <f>G39^2</f>
+      <c r="H39" s="98">
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="T39" s="99">
+      <c r="T39" s="106">
         <v>35</v>
       </c>
-      <c r="U39" s="99">
+      <c r="U39" s="106">
         <v>36</v>
       </c>
-      <c r="V39" s="99">
+      <c r="V39" s="98">
         <f>COUNTIF(U39:$U$54,"&gt;"&amp;U39)</f>
-        <v>2</v>
-      </c>
-      <c r="W39" s="99">
+        <v>4</v>
+      </c>
+      <c r="W39" s="98">
         <f>COUNTIF(U39:$U$54,"&lt;"&amp;U39)</f>
-        <v>13</v>
-      </c>
-      <c r="X39" s="99">
-        <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>11</v>
+      </c>
+      <c r="X39" s="98">
+        <f>V39-W39</f>
+        <v>-7</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
@@ -37162,39 +37160,39 @@
       <c r="B40" s="91">
         <v>5.4249200000000002</v>
       </c>
-      <c r="E40" s="99">
-        <f>_xlfn.RANK.AVG(A40,$A$5:$A$54,1)</f>
+      <c r="E40" s="98">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F40" s="99">
-        <f>_xlfn.RANK.AVG(B40,$B$5:$B$54,1)</f>
+      <c r="F40" s="98">
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G40" s="99">
-        <f>E40-F40</f>
+      <c r="G40" s="98">
+        <f t="shared" si="6"/>
         <v>-28</v>
       </c>
-      <c r="H40" s="99">
-        <f>G40^2</f>
+      <c r="H40" s="98">
+        <f t="shared" si="7"/>
         <v>784</v>
       </c>
-      <c r="T40" s="99">
+      <c r="T40" s="106">
         <v>36</v>
       </c>
-      <c r="U40" s="99">
-        <v>31</v>
-      </c>
-      <c r="V40" s="99">
+      <c r="U40" s="106">
+        <v>10</v>
+      </c>
+      <c r="V40" s="98">
         <f>COUNTIF(U40:$U$54,"&gt;"&amp;U40)</f>
-        <v>3</v>
-      </c>
-      <c r="W40" s="99">
+        <v>12</v>
+      </c>
+      <c r="W40" s="98">
         <f>COUNTIF(U40:$U$54,"&lt;"&amp;U40)</f>
-        <v>11</v>
-      </c>
-      <c r="X40" s="99">
-        <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>2</v>
+      </c>
+      <c r="X40" s="98">
+        <f>V40-W40</f>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
@@ -37204,39 +37202,39 @@
       <c r="B41" s="91">
         <v>6.4695099999999996</v>
       </c>
-      <c r="E41" s="99">
-        <f>_xlfn.RANK.AVG(A41,$A$5:$A$54,1)</f>
+      <c r="E41" s="98">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F41" s="99">
-        <f>_xlfn.RANK.AVG(B41,$B$5:$B$54,1)</f>
+      <c r="F41" s="98">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="G41" s="99">
-        <f>E41-F41</f>
+      <c r="G41" s="98">
+        <f t="shared" si="6"/>
         <v>-43</v>
       </c>
-      <c r="H41" s="99">
-        <f>G41^2</f>
+      <c r="H41" s="98">
+        <f t="shared" si="7"/>
         <v>1849</v>
       </c>
-      <c r="T41" s="99">
+      <c r="T41" s="106">
         <v>37</v>
       </c>
-      <c r="U41" s="99">
-        <v>44</v>
-      </c>
-      <c r="V41" s="99">
+      <c r="U41" s="106">
+        <v>16</v>
+      </c>
+      <c r="V41" s="98">
         <f>COUNTIF(U41:$U$54,"&gt;"&amp;U41)</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="99">
+        <v>8</v>
+      </c>
+      <c r="W41" s="98">
         <f>COUNTIF(U41:$U$54,"&lt;"&amp;U41)</f>
-        <v>13</v>
-      </c>
-      <c r="X41" s="99">
-        <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>5</v>
+      </c>
+      <c r="X41" s="98">
+        <f>V41-W41</f>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
@@ -37246,39 +37244,39 @@
       <c r="B42" s="91">
         <v>3.1700400000000002</v>
       </c>
-      <c r="E42" s="99">
-        <f>_xlfn.RANK.AVG(A42,$A$5:$A$54,1)</f>
+      <c r="E42" s="98">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="F42" s="99">
-        <f>_xlfn.RANK.AVG(B42,$B$5:$B$54,1)</f>
+      <c r="F42" s="98">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="G42" s="99">
-        <f>E42-F42</f>
+      <c r="G42" s="98">
+        <f t="shared" si="6"/>
         <v>-21</v>
       </c>
-      <c r="H42" s="99">
-        <f>G42^2</f>
+      <c r="H42" s="98">
+        <f t="shared" si="7"/>
         <v>441</v>
       </c>
-      <c r="T42" s="99">
+      <c r="T42" s="106">
         <v>38</v>
       </c>
-      <c r="U42" s="99">
-        <v>34</v>
-      </c>
-      <c r="V42" s="99">
+      <c r="U42" s="106">
+        <v>35</v>
+      </c>
+      <c r="V42" s="98">
         <f>COUNTIF(U42:$U$54,"&gt;"&amp;U42)</f>
-        <v>1</v>
-      </c>
-      <c r="W42" s="99">
+        <v>4</v>
+      </c>
+      <c r="W42" s="98">
         <f>COUNTIF(U42:$U$54,"&lt;"&amp;U42)</f>
-        <v>11</v>
-      </c>
-      <c r="X42" s="99">
-        <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>8</v>
+      </c>
+      <c r="X42" s="98">
+        <f>V42-W42</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
@@ -37288,39 +37286,39 @@
       <c r="B43" s="91">
         <v>1.5833200000000001</v>
       </c>
-      <c r="E43" s="99">
-        <f>_xlfn.RANK.AVG(A43,$A$5:$A$54,1)</f>
+      <c r="E43" s="98">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="F43" s="99">
-        <f>_xlfn.RANK.AVG(B43,$B$5:$B$54,1)</f>
+      <c r="F43" s="98">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="G43" s="99">
-        <f>E43-F43</f>
+      <c r="G43" s="98">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="H43" s="99">
-        <f>G43^2</f>
+      <c r="H43" s="98">
+        <f t="shared" si="7"/>
         <v>900</v>
       </c>
-      <c r="T43" s="99">
+      <c r="T43" s="106">
         <v>39</v>
       </c>
-      <c r="U43" s="99">
-        <v>25</v>
-      </c>
-      <c r="V43" s="99">
+      <c r="U43" s="106">
+        <v>40</v>
+      </c>
+      <c r="V43" s="98">
         <f>COUNTIF(U43:$U$54,"&gt;"&amp;U43)</f>
-        <v>3</v>
-      </c>
-      <c r="W43" s="99">
+        <v>2</v>
+      </c>
+      <c r="W43" s="98">
         <f>COUNTIF(U43:$U$54,"&lt;"&amp;U43)</f>
-        <v>8</v>
-      </c>
-      <c r="X43" s="99">
-        <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>9</v>
+      </c>
+      <c r="X43" s="98">
+        <f>V43-W43</f>
+        <v>-7</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
@@ -37330,39 +37328,39 @@
       <c r="B44" s="91">
         <v>2.7949199999999998</v>
       </c>
-      <c r="E44" s="99">
-        <f>_xlfn.RANK.AVG(A44,$A$5:$A$54,1)</f>
+      <c r="E44" s="98">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="F44" s="99">
-        <f>_xlfn.RANK.AVG(B44,$B$5:$B$54,1)</f>
+      <c r="F44" s="98">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="G44" s="99">
-        <f>E44-F44</f>
+      <c r="G44" s="98">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="H44" s="99">
-        <f>G44^2</f>
+      <c r="H44" s="98">
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="T44" s="99">
+      <c r="T44" s="106">
         <v>40</v>
       </c>
-      <c r="U44" s="99">
-        <v>7</v>
-      </c>
-      <c r="V44" s="99">
+      <c r="U44" s="106">
+        <v>6</v>
+      </c>
+      <c r="V44" s="98">
         <f>COUNTIF(U44:$U$54,"&gt;"&amp;U44)</f>
-        <v>8</v>
-      </c>
-      <c r="W44" s="99">
+        <v>10</v>
+      </c>
+      <c r="W44" s="98">
         <f>COUNTIF(U44:$U$54,"&lt;"&amp;U44)</f>
-        <v>2</v>
-      </c>
-      <c r="X44" s="99">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="X44" s="98">
+        <f>V44-W44</f>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
@@ -37372,39 +37370,39 @@
       <c r="B45" s="91">
         <v>1.7513700000000001</v>
       </c>
-      <c r="E45" s="99">
-        <f>_xlfn.RANK.AVG(A45,$A$5:$A$54,1)</f>
+      <c r="E45" s="98">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F45" s="99">
-        <f>_xlfn.RANK.AVG(B45,$B$5:$B$54,1)</f>
+      <c r="F45" s="98">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="G45" s="99">
-        <f>E45-F45</f>
+      <c r="G45" s="98">
+        <f t="shared" si="6"/>
         <v>-17</v>
       </c>
-      <c r="H45" s="99">
-        <f>G45^2</f>
+      <c r="H45" s="98">
+        <f t="shared" si="7"/>
         <v>289</v>
       </c>
-      <c r="T45" s="99">
+      <c r="T45" s="106">
         <v>41</v>
       </c>
-      <c r="U45" s="99">
-        <v>29</v>
-      </c>
-      <c r="V45" s="99">
+      <c r="U45" s="106">
+        <v>25</v>
+      </c>
+      <c r="V45" s="98">
         <f>COUNTIF(U45:$U$54,"&gt;"&amp;U45)</f>
-        <v>2</v>
-      </c>
-      <c r="W45" s="99">
+        <v>5</v>
+      </c>
+      <c r="W45" s="98">
         <f>COUNTIF(U45:$U$54,"&lt;"&amp;U45)</f>
-        <v>7</v>
-      </c>
-      <c r="X45" s="99">
-        <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>4</v>
+      </c>
+      <c r="X45" s="98">
+        <f>V45-W45</f>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
@@ -37414,39 +37412,39 @@
       <c r="B46" s="91">
         <v>1.25841</v>
       </c>
-      <c r="E46" s="99">
-        <f>_xlfn.RANK.AVG(A46,$A$5:$A$54,1)</f>
+      <c r="E46" s="98">
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="F46" s="99">
-        <f>_xlfn.RANK.AVG(B46,$B$5:$B$54,1)</f>
+      <c r="F46" s="98">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="G46" s="99">
-        <f>E46-F46</f>
+      <c r="G46" s="98">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="H46" s="99">
-        <f>G46^2</f>
+      <c r="H46" s="98">
+        <f t="shared" si="7"/>
         <v>841</v>
       </c>
-      <c r="T46" s="99">
+      <c r="T46" s="106">
         <v>42</v>
       </c>
-      <c r="U46" s="99">
-        <v>5</v>
-      </c>
-      <c r="V46" s="99">
+      <c r="U46" s="106">
+        <v>13</v>
+      </c>
+      <c r="V46" s="98">
         <f>COUNTIF(U46:$U$54,"&gt;"&amp;U46)</f>
-        <v>7</v>
-      </c>
-      <c r="W46" s="99">
+        <v>6</v>
+      </c>
+      <c r="W46" s="98">
         <f>COUNTIF(U46:$U$54,"&lt;"&amp;U46)</f>
-        <v>1</v>
-      </c>
-      <c r="X46" s="99">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="X46" s="98">
+        <f>V46-W46</f>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
@@ -37456,39 +37454,39 @@
       <c r="B47" s="91">
         <v>1.5901099999999999</v>
       </c>
-      <c r="E47" s="99">
-        <f>_xlfn.RANK.AVG(A47,$A$5:$A$54,1)</f>
+      <c r="E47" s="98">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="F47" s="99">
-        <f>_xlfn.RANK.AVG(B47,$B$5:$B$54,1)</f>
+      <c r="F47" s="98">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="G47" s="99">
-        <f>E47-F47</f>
+      <c r="G47" s="98">
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="H47" s="99">
-        <f>G47^2</f>
+      <c r="H47" s="98">
+        <f t="shared" si="7"/>
         <v>441</v>
       </c>
-      <c r="T47" s="99">
+      <c r="T47" s="106">
         <v>43</v>
       </c>
-      <c r="U47" s="99">
-        <v>13</v>
-      </c>
-      <c r="V47" s="99">
+      <c r="U47" s="106">
+        <v>43</v>
+      </c>
+      <c r="V47" s="98">
         <f>COUNTIF(U47:$U$54,"&gt;"&amp;U47)</f>
+        <v>1</v>
+      </c>
+      <c r="W47" s="98">
+        <f>COUNTIF(U47:$U$54,"&lt;"&amp;U47)</f>
         <v>6</v>
       </c>
-      <c r="W47" s="99">
-        <f>COUNTIF(U47:$U$54,"&lt;"&amp;U47)</f>
-        <v>1</v>
-      </c>
-      <c r="X47" s="99">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="X47" s="98">
+        <f>V47-W47</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
@@ -37498,39 +37496,39 @@
       <c r="B48" s="91">
         <v>-0.13830100000000001</v>
       </c>
-      <c r="E48" s="99">
-        <f>_xlfn.RANK.AVG(A48,$A$5:$A$54,1)</f>
+      <c r="E48" s="98">
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="F48" s="99">
-        <f>_xlfn.RANK.AVG(B48,$B$5:$B$54,1)</f>
+      <c r="F48" s="98">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="G48" s="99">
-        <f>E48-F48</f>
+      <c r="G48" s="98">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="H48" s="99">
-        <f>G48^2</f>
+      <c r="H48" s="98">
+        <f t="shared" si="7"/>
         <v>1600</v>
       </c>
-      <c r="T48" s="99">
+      <c r="T48" s="106">
         <v>44</v>
       </c>
-      <c r="U48" s="99">
-        <v>1</v>
-      </c>
-      <c r="V48" s="99">
+      <c r="U48" s="106">
+        <v>28</v>
+      </c>
+      <c r="V48" s="98">
         <f>COUNTIF(U48:$U$54,"&gt;"&amp;U48)</f>
-        <v>6</v>
-      </c>
-      <c r="W48" s="99">
+        <v>3</v>
+      </c>
+      <c r="W48" s="98">
         <f>COUNTIF(U48:$U$54,"&lt;"&amp;U48)</f>
+        <v>3</v>
+      </c>
+      <c r="X48" s="98">
+        <f>V48-W48</f>
         <v>0</v>
-      </c>
-      <c r="X48" s="99">
-        <f t="shared" si="0"/>
-        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
@@ -37540,38 +37538,38 @@
       <c r="B49" s="91">
         <v>3.7054800000000001</v>
       </c>
-      <c r="E49" s="99">
-        <f>_xlfn.RANK.AVG(A49,$A$5:$A$54,1)</f>
+      <c r="E49" s="98">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="F49" s="99">
-        <f>_xlfn.RANK.AVG(B49,$B$5:$B$54,1)</f>
+      <c r="F49" s="98">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="G49" s="99">
-        <f>E49-F49</f>
+      <c r="G49" s="98">
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
-      <c r="H49" s="99">
-        <f>G49^2</f>
+      <c r="H49" s="98">
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
-      <c r="T49" s="99">
+      <c r="T49" s="106">
         <v>45</v>
       </c>
-      <c r="U49" s="99">
-        <v>21</v>
-      </c>
-      <c r="V49" s="99">
+      <c r="U49" s="106">
+        <v>15</v>
+      </c>
+      <c r="V49" s="98">
         <f>COUNTIF(U49:$U$54,"&gt;"&amp;U49)</f>
         <v>3</v>
       </c>
-      <c r="W49" s="99">
+      <c r="W49" s="98">
         <f>COUNTIF(U49:$U$54,"&lt;"&amp;U49)</f>
         <v>2</v>
       </c>
-      <c r="X49" s="99">
-        <f t="shared" si="0"/>
+      <c r="X49" s="98">
+        <f>V49-W49</f>
         <v>1</v>
       </c>
     </row>
@@ -37582,39 +37580,39 @@
       <c r="B50" s="91">
         <v>-0.60269700000000004</v>
       </c>
-      <c r="E50" s="99">
-        <f>_xlfn.RANK.AVG(A50,$A$5:$A$54,1)</f>
+      <c r="E50" s="98">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="F50" s="99">
-        <f>_xlfn.RANK.AVG(B50,$B$5:$B$54,1)</f>
+      <c r="F50" s="98">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G50" s="99">
-        <f>E50-F50</f>
+      <c r="G50" s="98">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="H50" s="99">
-        <f>G50^2</f>
+      <c r="H50" s="98">
+        <f t="shared" si="7"/>
         <v>900</v>
       </c>
-      <c r="T50" s="99">
+      <c r="T50" s="106">
         <v>46</v>
       </c>
-      <c r="U50" s="99">
-        <v>42</v>
-      </c>
-      <c r="V50" s="99">
+      <c r="U50" s="106">
+        <v>12</v>
+      </c>
+      <c r="V50" s="98">
         <f>COUNTIF(U50:$U$54,"&gt;"&amp;U50)</f>
-        <v>0</v>
-      </c>
-      <c r="W50" s="99">
+        <v>3</v>
+      </c>
+      <c r="W50" s="98">
         <f>COUNTIF(U50:$U$54,"&lt;"&amp;U50)</f>
-        <v>4</v>
-      </c>
-      <c r="X50" s="99">
-        <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>1</v>
+      </c>
+      <c r="X50" s="98">
+        <f>V50-W50</f>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
@@ -37624,38 +37622,38 @@
       <c r="B51" s="91">
         <v>4.6064499999999997</v>
       </c>
-      <c r="E51" s="99">
-        <f>_xlfn.RANK.AVG(A51,$A$5:$A$54,1)</f>
+      <c r="E51" s="98">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="F51" s="99">
-        <f>_xlfn.RANK.AVG(B51,$B$5:$B$54,1)</f>
+      <c r="F51" s="98">
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="G51" s="99">
-        <f>E51-F51</f>
+      <c r="G51" s="98">
+        <f t="shared" si="6"/>
         <v>-12</v>
       </c>
-      <c r="H51" s="99">
-        <f>G51^2</f>
+      <c r="H51" s="98">
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
-      <c r="T51" s="99">
+      <c r="T51" s="106">
         <v>47</v>
       </c>
-      <c r="U51" s="99">
-        <v>17</v>
-      </c>
-      <c r="V51" s="99">
+      <c r="U51" s="106">
+        <v>7</v>
+      </c>
+      <c r="V51" s="98">
         <f>COUNTIF(U51:$U$54,"&gt;"&amp;U51)</f>
         <v>3</v>
       </c>
-      <c r="W51" s="99">
+      <c r="W51" s="98">
         <f>COUNTIF(U51:$U$54,"&lt;"&amp;U51)</f>
         <v>0</v>
       </c>
-      <c r="X51" s="99">
-        <f t="shared" si="0"/>
+      <c r="X51" s="98">
+        <f>V51-W51</f>
         <v>3</v>
       </c>
     </row>
@@ -37666,38 +37664,38 @@
       <c r="B52" s="91">
         <v>-0.73702800000000002</v>
       </c>
-      <c r="E52" s="99">
-        <f>_xlfn.RANK.AVG(A52,$A$5:$A$54,1)</f>
+      <c r="E52" s="98">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="F52" s="99">
-        <f>_xlfn.RANK.AVG(B52,$B$5:$B$54,1)</f>
+      <c r="F52" s="98">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G52" s="99">
-        <f>E52-F52</f>
+      <c r="G52" s="98">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="H52" s="99">
-        <f>G52^2</f>
+      <c r="H52" s="98">
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
-      <c r="T52" s="99">
+      <c r="T52" s="106">
         <v>48</v>
       </c>
-      <c r="U52" s="99">
-        <v>30</v>
-      </c>
-      <c r="V52" s="99">
+      <c r="U52" s="106">
+        <v>46</v>
+      </c>
+      <c r="V52" s="98">
         <f>COUNTIF(U52:$U$54,"&gt;"&amp;U52)</f>
         <v>0</v>
       </c>
-      <c r="W52" s="99">
+      <c r="W52" s="98">
         <f>COUNTIF(U52:$U$54,"&lt;"&amp;U52)</f>
         <v>2</v>
       </c>
-      <c r="X52" s="99">
-        <f t="shared" si="0"/>
+      <c r="X52" s="98">
+        <f>V52-W52</f>
         <v>-2</v>
       </c>
     </row>
@@ -37708,38 +37706,38 @@
       <c r="B53" s="91">
         <v>0.42441400000000001</v>
       </c>
-      <c r="E53" s="99">
-        <f>_xlfn.RANK.AVG(A53,$A$5:$A$54,1)</f>
+      <c r="E53" s="98">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="F53" s="99">
-        <f>_xlfn.RANK.AVG(B53,$B$5:$B$54,1)</f>
+      <c r="F53" s="98">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G53" s="99">
-        <f>E53-F53</f>
+      <c r="G53" s="98">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="H53" s="99">
-        <f>G53^2</f>
+      <c r="H53" s="98">
+        <f t="shared" si="7"/>
         <v>676</v>
       </c>
-      <c r="T53" s="99">
+      <c r="T53" s="106">
         <v>49</v>
       </c>
-      <c r="U53" s="99">
-        <v>20</v>
-      </c>
-      <c r="V53" s="99">
+      <c r="U53" s="106">
+        <v>32</v>
+      </c>
+      <c r="V53" s="98">
         <f>COUNTIF(U53:$U$54,"&gt;"&amp;U53)</f>
         <v>1</v>
       </c>
-      <c r="W53" s="99">
+      <c r="W53" s="98">
         <f>COUNTIF(U53:$U$54,"&lt;"&amp;U53)</f>
         <v>0</v>
       </c>
-      <c r="X53" s="99">
-        <f t="shared" si="0"/>
+      <c r="X53" s="98">
+        <f>V53-W53</f>
         <v>1</v>
       </c>
     </row>
@@ -37750,43 +37748,49 @@
       <c r="B54" s="91">
         <v>2.4750100000000002</v>
       </c>
-      <c r="E54" s="99">
-        <f>_xlfn.RANK.AVG(A54,$A$5:$A$54,1)</f>
+      <c r="E54" s="98">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="F54" s="99">
-        <f>_xlfn.RANK.AVG(B54,$B$5:$B$54,1)</f>
+      <c r="F54" s="98">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="G54" s="99">
-        <f>E54-F54</f>
+      <c r="G54" s="98">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H54" s="99">
-        <f>G54^2</f>
+      <c r="H54" s="98">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="T54" s="99">
+      <c r="T54" s="106">
         <v>50</v>
       </c>
-      <c r="U54" s="99">
-        <v>23</v>
-      </c>
-      <c r="V54" s="99">
+      <c r="U54" s="106">
+        <v>39</v>
+      </c>
+      <c r="V54" s="98">
         <f>COUNTIF(U54:$U$54,"&gt;"&amp;U54)</f>
         <v>0</v>
       </c>
-      <c r="W54" s="99">
+      <c r="W54" s="98">
         <f>COUNTIF(U54:$U$54,"&lt;"&amp;U54)</f>
         <v>0</v>
       </c>
-      <c r="X54" s="99">
-        <f t="shared" si="0"/>
+      <c r="X54" s="98">
+        <f>V54-W54</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T5:X54">
+    <sortCondition ref="T5:T54"/>
+  </sortState>
   <mergeCells count="17">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L32:N34"/>
     <mergeCell ref="J32:K34"/>
     <mergeCell ref="J7:J9"/>
@@ -37801,9 +37805,6 @@
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="M25:M27"/>
     <mergeCell ref="N25:N27"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37840,15 +37841,15 @@
         <f>AVERAGE(C3:C52)</f>
         <v>2.5221319599999994</v>
       </c>
-      <c r="D1" s="106">
+      <c r="D1" s="105">
         <f>SUM(D3:D52)</f>
         <v>2.1421374229512034</v>
       </c>
-      <c r="E1" s="106">
+      <c r="E1" s="105">
         <f t="shared" ref="E1:F1" si="0">SUM(E3:E52)</f>
         <v>8.2526706408819983</v>
       </c>
-      <c r="F1" s="106">
+      <c r="F1" s="105">
         <f t="shared" si="0"/>
         <v>186.08257986986391</v>
       </c>
@@ -37889,7 +37890,7 @@
         <f>(C3-$C$1)^2</f>
         <v>0.24466679061504237</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="97" t="s">
         <v>111</v>
       </c>
       <c r="R3" s="91">
